--- a/Input/dap/dap_mpca_preliminary_pop_groups.xlsx
+++ b/Input/dap/dap_mpca_preliminary_pop_groups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="672">
   <si>
     <t>research.question</t>
   </si>
@@ -575,9 +575,6 @@
     <t>% of household reporting effect of MPCA on ability to withstand shocks</t>
   </si>
   <si>
-    <t>% of households reporting reasons MPCA was ineffective In helping withstand shocks</t>
-  </si>
-  <si>
     <t>% of HHs by reported income sources</t>
   </si>
   <si>
@@ -1178,9 +1175,6 @@
     <t>shocks6</t>
   </si>
   <si>
-    <t>shocks7</t>
-  </si>
-  <si>
     <t>impact5</t>
   </si>
   <si>
@@ -1779,24 +1773,6 @@
   </si>
   <si>
     <t>shock5</t>
-  </si>
-  <si>
-    <t>shock7_i</t>
-  </si>
-  <si>
-    <t>shock7_v</t>
-  </si>
-  <si>
-    <t>shock7_vi</t>
-  </si>
-  <si>
-    <t>shock7_vii</t>
-  </si>
-  <si>
-    <t>shock7_viii</t>
-  </si>
-  <si>
-    <t>shock7_xi</t>
   </si>
   <si>
     <t>Average expenditure</t>
@@ -2457,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J354"/>
+  <dimension ref="A1:J347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="B184" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B196" sqref="A196:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2527,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -2557,7 +2533,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -2587,7 +2563,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -2612,7 +2588,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
@@ -2637,7 +2613,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -2667,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>13</v>
@@ -2681,18 +2657,18 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>13</v>
@@ -2706,18 +2682,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>13</v>
@@ -2731,18 +2707,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>13</v>
@@ -2756,18 +2732,18 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>13</v>
@@ -2781,18 +2757,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>13</v>
@@ -2818,10 +2794,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>13</v>
@@ -2850,7 +2826,7 @@
         <v>27</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>13</v>
@@ -2873,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>13</v>
@@ -2890,13 +2866,13 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>13</v>
@@ -2913,13 +2889,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>13</v>
@@ -2936,13 +2912,13 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>13</v>
@@ -2959,13 +2935,13 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>13</v>
@@ -2982,13 +2958,13 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I20" s="17" t="s">
         <v>13</v>
@@ -3005,13 +2981,13 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>13</v>
@@ -3028,13 +3004,13 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>13</v>
@@ -3051,13 +3027,13 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G23" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>13</v>
@@ -3074,13 +3050,13 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>13</v>
@@ -3100,10 +3076,10 @@
         <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>13</v>
@@ -3126,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>13</v>
@@ -3149,7 +3125,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>13</v>
@@ -3172,7 +3148,7 @@
         <v>35</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>13</v>
@@ -3195,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>13</v>
@@ -3218,7 +3194,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>13</v>
@@ -3241,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>13</v>
@@ -3264,7 +3240,7 @@
         <v>39</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>13</v>
@@ -3287,7 +3263,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>13</v>
@@ -3307,10 +3283,10 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>13</v>
@@ -3327,13 +3303,13 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>13</v>
@@ -3350,13 +3326,13 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>13</v>
@@ -3373,13 +3349,13 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>13</v>
@@ -3396,13 +3372,13 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>13</v>
@@ -3419,13 +3395,13 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>13</v>
@@ -3442,13 +3418,13 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G40" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>13</v>
@@ -3465,13 +3441,13 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G41" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>13</v>
@@ -3488,13 +3464,13 @@
         <v>51</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>13</v>
@@ -3517,7 +3493,7 @@
         <v>66</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>13</v>
@@ -3540,7 +3516,7 @@
         <v>67</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>13</v>
@@ -3563,7 +3539,7 @@
         <v>68</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>13</v>
@@ -3586,7 +3562,7 @@
         <v>69</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>13</v>
@@ -3609,7 +3585,7 @@
         <v>70</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>13</v>
@@ -3632,7 +3608,7 @@
         <v>71</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>13</v>
@@ -3655,7 +3631,7 @@
         <v>72</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>13</v>
@@ -3678,7 +3654,7 @@
         <v>73</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>13</v>
@@ -3701,7 +3677,7 @@
         <v>74</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>13</v>
@@ -3724,7 +3700,7 @@
         <v>75</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>13</v>
@@ -3747,7 +3723,7 @@
         <v>76</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>13</v>
@@ -3770,7 +3746,7 @@
         <v>77</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>13</v>
@@ -3793,7 +3769,7 @@
         <v>91</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>13</v>
@@ -3807,16 +3783,16 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I56" s="17" t="s">
         <v>13</v>
@@ -3830,16 +3806,16 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I57" s="17" t="s">
         <v>13</v>
@@ -3853,16 +3829,16 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G58" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>13</v>
@@ -3876,16 +3852,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>13</v>
@@ -3899,16 +3875,16 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>13</v>
@@ -3922,16 +3898,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G61" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>13</v>
@@ -3954,7 +3930,7 @@
         <v>92</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>13</v>
@@ -3968,16 +3944,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G63" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>13</v>
@@ -3991,16 +3967,16 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
+        <v>458</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>462</v>
-      </c>
       <c r="G64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>13</v>
@@ -4014,16 +3990,16 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G65" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>13</v>
@@ -4037,16 +4013,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I66" s="17" t="s">
         <v>13</v>
@@ -4060,16 +4036,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G67" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>13</v>
@@ -4083,16 +4059,16 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G68" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I68" s="17" t="s">
         <v>13</v>
@@ -4115,7 +4091,7 @@
         <v>93</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>13</v>
@@ -4129,16 +4105,16 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G70" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>13</v>
@@ -4152,16 +4128,16 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
+        <v>465</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G71" t="s">
         <v>467</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G71" t="s">
-        <v>469</v>
-      </c>
       <c r="H71" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>13</v>
@@ -4175,16 +4151,16 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>13</v>
@@ -4198,16 +4174,16 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G73" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>13</v>
@@ -4221,16 +4197,16 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>13</v>
@@ -4244,16 +4220,16 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G75" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>13</v>
@@ -4276,7 +4252,7 @@
         <v>94</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>13</v>
@@ -4293,13 +4269,13 @@
         <v>78</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I77" s="17" t="s">
         <v>13</v>
@@ -4316,13 +4292,13 @@
         <v>78</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>13</v>
@@ -4339,13 +4315,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G79" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I79" s="17" t="s">
         <v>13</v>
@@ -4362,13 +4338,13 @@
         <v>78</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I80" s="17" t="s">
         <v>13</v>
@@ -4385,13 +4361,13 @@
         <v>78</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I81" s="17" t="s">
         <v>13</v>
@@ -4408,13 +4384,13 @@
         <v>78</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G82" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I82" s="17" t="s">
         <v>13</v>
@@ -4437,7 +4413,7 @@
         <v>95</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>13</v>
@@ -4451,16 +4427,16 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G84" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I84" s="17" t="s">
         <v>13</v>
@@ -4474,16 +4450,16 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
+        <v>478</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G85" t="s">
         <v>480</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G85" t="s">
-        <v>482</v>
-      </c>
       <c r="H85" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I85" s="17" t="s">
         <v>13</v>
@@ -4497,16 +4473,16 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G86" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I86" s="17" t="s">
         <v>13</v>
@@ -4520,16 +4496,16 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G87" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I87" s="17" t="s">
         <v>13</v>
@@ -4543,16 +4519,16 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G88" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I88" s="17" t="s">
         <v>13</v>
@@ -4566,16 +4542,16 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G89" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I89" s="17" t="s">
         <v>13</v>
@@ -4598,7 +4574,7 @@
         <v>96</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>13</v>
@@ -4612,16 +4588,16 @@
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G91" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I91" s="17" t="s">
         <v>13</v>
@@ -4635,16 +4611,16 @@
         <v>65</v>
       </c>
       <c r="B92" t="s">
+        <v>485</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" t="s">
         <v>487</v>
       </c>
-      <c r="C92" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G92" t="s">
-        <v>489</v>
-      </c>
       <c r="H92" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I92" s="17" t="s">
         <v>13</v>
@@ -4658,16 +4634,16 @@
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G93" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I93" s="17" t="s">
         <v>13</v>
@@ -4681,16 +4657,16 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I94" s="17" t="s">
         <v>13</v>
@@ -4704,16 +4680,16 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G95" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I95" s="17" t="s">
         <v>13</v>
@@ -4727,16 +4703,16 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G96" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I96" s="17" t="s">
         <v>13</v>
@@ -4759,7 +4735,7 @@
         <v>97</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>13</v>
@@ -4773,16 +4749,16 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G98" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I98" s="17" t="s">
         <v>13</v>
@@ -4796,16 +4772,16 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
+        <v>492</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G99" t="s">
         <v>494</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G99" t="s">
-        <v>496</v>
-      </c>
       <c r="H99" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I99" s="17" t="s">
         <v>13</v>
@@ -4819,16 +4795,16 @@
         <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G100" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>13</v>
@@ -4842,16 +4818,16 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G101" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I101" s="17" t="s">
         <v>13</v>
@@ -4865,16 +4841,16 @@
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G102" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I102" s="17" t="s">
         <v>13</v>
@@ -4888,16 +4864,16 @@
         <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G103" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I103" s="17" t="s">
         <v>13</v>
@@ -4920,7 +4896,7 @@
         <v>98</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>13</v>
@@ -4934,16 +4910,16 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G105" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I105" s="17" t="s">
         <v>13</v>
@@ -4957,16 +4933,16 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G106" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I106" s="17" t="s">
         <v>13</v>
@@ -4980,16 +4956,16 @@
         <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G107" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I107" s="17" t="s">
         <v>13</v>
@@ -5003,16 +4979,16 @@
         <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G108" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I108" s="17" t="s">
         <v>13</v>
@@ -5026,16 +5002,16 @@
         <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G109" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I109" s="17" t="s">
         <v>13</v>
@@ -5049,16 +5025,16 @@
         <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G110" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I110" s="17" t="s">
         <v>13</v>
@@ -5081,7 +5057,7 @@
         <v>99</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>13</v>
@@ -5095,16 +5071,16 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G112" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I112" s="17" t="s">
         <v>13</v>
@@ -5118,16 +5094,16 @@
         <v>65</v>
       </c>
       <c r="B113" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G113" t="s">
         <v>508</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G113" t="s">
-        <v>510</v>
-      </c>
       <c r="H113" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I113" s="17" t="s">
         <v>13</v>
@@ -5141,16 +5117,16 @@
         <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G114" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I114" s="17" t="s">
         <v>13</v>
@@ -5164,16 +5140,16 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G115" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I115" s="17" t="s">
         <v>13</v>
@@ -5187,16 +5163,16 @@
         <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G116" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I116" s="17" t="s">
         <v>13</v>
@@ -5210,16 +5186,16 @@
         <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G117" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I117" s="17" t="s">
         <v>13</v>
@@ -5242,7 +5218,7 @@
         <v>100</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>13</v>
@@ -5259,13 +5235,13 @@
         <v>78</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I119" s="17" t="s">
         <v>13</v>
@@ -5282,13 +5258,13 @@
         <v>78</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G120" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I120" s="17" t="s">
         <v>13</v>
@@ -5305,13 +5281,13 @@
         <v>78</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G121" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I121" s="17" t="s">
         <v>13</v>
@@ -5328,13 +5304,13 @@
         <v>78</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G122" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I122" s="17" t="s">
         <v>13</v>
@@ -5351,13 +5327,13 @@
         <v>78</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G123" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I123" s="17" t="s">
         <v>13</v>
@@ -5374,13 +5350,13 @@
         <v>78</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G124" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>13</v>
@@ -5403,7 +5379,7 @@
         <v>101</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>13</v>
@@ -5417,16 +5393,16 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G126" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I126" s="17" t="s">
         <v>13</v>
@@ -5440,16 +5416,16 @@
         <v>65</v>
       </c>
       <c r="B127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G127" t="s">
         <v>521</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G127" t="s">
-        <v>523</v>
-      </c>
       <c r="H127" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I127" s="17" t="s">
         <v>13</v>
@@ -5463,16 +5439,16 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G128" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I128" s="17" t="s">
         <v>13</v>
@@ -5486,16 +5462,16 @@
         <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G129" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>13</v>
@@ -5509,16 +5485,16 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G130" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I130" s="17" t="s">
         <v>13</v>
@@ -5532,16 +5508,16 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G131" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I131" s="17" t="s">
         <v>13</v>
@@ -5564,7 +5540,7 @@
         <v>102</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>13</v>
@@ -5578,16 +5554,16 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G133" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>13</v>
@@ -5601,16 +5577,16 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
+        <v>526</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G134" t="s">
         <v>528</v>
       </c>
-      <c r="C134" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G134" t="s">
-        <v>530</v>
-      </c>
       <c r="H134" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I134" s="17" t="s">
         <v>13</v>
@@ -5624,16 +5600,16 @@
         <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G135" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I135" s="17" t="s">
         <v>13</v>
@@ -5647,16 +5623,16 @@
         <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G136" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I136" s="17" t="s">
         <v>13</v>
@@ -5670,16 +5646,16 @@
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G137" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I137" s="17" t="s">
         <v>13</v>
@@ -5693,16 +5669,16 @@
         <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G138" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I138" s="17" t="s">
         <v>13</v>
@@ -5725,7 +5701,7 @@
         <v>111</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>13</v>
@@ -5748,7 +5724,7 @@
         <v>112</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>13</v>
@@ -5771,7 +5747,7 @@
         <v>113</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>13</v>
@@ -5794,7 +5770,7 @@
         <v>114</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>13</v>
@@ -5817,7 +5793,7 @@
         <v>115</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>13</v>
@@ -5840,7 +5816,7 @@
         <v>116</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>13</v>
@@ -5863,7 +5839,7 @@
         <v>117</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>13</v>
@@ -5886,7 +5862,7 @@
         <v>119</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>13</v>
@@ -5909,7 +5885,7 @@
         <v>120</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>13</v>
@@ -5932,7 +5908,7 @@
         <v>121</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>13</v>
@@ -5955,7 +5931,7 @@
         <v>122</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>13</v>
@@ -5978,7 +5954,7 @@
         <v>123</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>13</v>
@@ -6001,7 +5977,7 @@
         <v>124</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>13</v>
@@ -6024,7 +6000,7 @@
         <v>125</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>13</v>
@@ -6044,10 +6020,10 @@
         <v>118</v>
       </c>
       <c r="G153" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>13</v>
@@ -6070,7 +6046,7 @@
         <v>128</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>13</v>
@@ -6093,7 +6069,7 @@
         <v>133</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>13</v>
@@ -6116,7 +6092,7 @@
         <v>134</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>13</v>
@@ -6139,7 +6115,7 @@
         <v>135</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>13</v>
@@ -6162,7 +6138,7 @@
         <v>137</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>13</v>
@@ -6185,7 +6161,7 @@
         <v>138</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>13</v>
@@ -6208,7 +6184,7 @@
         <v>139</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>13</v>
@@ -6231,7 +6207,7 @@
         <v>140</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>13</v>
@@ -6254,7 +6230,7 @@
         <v>141</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>13</v>
@@ -6277,7 +6253,7 @@
         <v>142</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>13</v>
@@ -6300,7 +6276,7 @@
         <v>143</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>13</v>
@@ -6323,7 +6299,7 @@
         <v>144</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>13</v>
@@ -6346,7 +6322,7 @@
         <v>145</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>13</v>
@@ -6369,7 +6345,7 @@
         <v>146</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>13</v>
@@ -6392,7 +6368,7 @@
         <v>147</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>13</v>
@@ -6415,7 +6391,7 @@
         <v>161</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>13</v>
@@ -6429,16 +6405,16 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" t="s">
+        <v>380</v>
+      </c>
+      <c r="G170" t="s">
         <v>381</v>
       </c>
-      <c r="C170" t="s">
-        <v>381</v>
-      </c>
-      <c r="G170" t="s">
-        <v>382</v>
-      </c>
       <c r="H170" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I170" s="11" t="s">
         <v>13</v>
@@ -6452,16 +6428,16 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G171" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I171" s="17" t="s">
         <v>13</v>
@@ -6475,16 +6451,16 @@
         <v>159</v>
       </c>
       <c r="B172" t="s">
+        <v>539</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G172" t="s">
         <v>541</v>
       </c>
-      <c r="C172" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="G172" t="s">
-        <v>543</v>
-      </c>
       <c r="H172" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I172" s="17" t="s">
         <v>13</v>
@@ -6498,16 +6474,16 @@
         <v>159</v>
       </c>
       <c r="B173" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G173" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I173" s="17" t="s">
         <v>13</v>
@@ -6521,16 +6497,16 @@
         <v>159</v>
       </c>
       <c r="B174" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G174" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I174" s="17" t="s">
         <v>13</v>
@@ -6544,16 +6520,16 @@
         <v>159</v>
       </c>
       <c r="B175" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G175" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I175" s="17" t="s">
         <v>13</v>
@@ -6567,16 +6543,16 @@
         <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G176" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I176" s="17" t="s">
         <v>13</v>
@@ -6596,10 +6572,10 @@
         <v>162</v>
       </c>
       <c r="G177" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>13</v>
@@ -6622,7 +6598,7 @@
         <v>173</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>13</v>
@@ -6645,7 +6621,7 @@
         <v>174</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>13</v>
@@ -6668,7 +6644,7 @@
         <v>175</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>13</v>
@@ -6691,7 +6667,7 @@
         <v>176</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>13</v>
@@ -6714,7 +6690,7 @@
         <v>177</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>13</v>
@@ -6737,7 +6713,7 @@
         <v>178</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>13</v>
@@ -6760,7 +6736,7 @@
         <v>179</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>13</v>
@@ -6783,7 +6759,7 @@
         <v>180</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>13</v>
@@ -6806,7 +6782,7 @@
         <v>181</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>13</v>
@@ -6823,13 +6799,13 @@
         <v>182</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G187" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I187" s="17" t="s">
         <v>13</v>
@@ -6846,13 +6822,13 @@
         <v>182</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G188" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I188" s="17" t="s">
         <v>13</v>
@@ -6869,13 +6845,13 @@
         <v>182</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G189" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I189" s="17" t="s">
         <v>13</v>
@@ -6892,13 +6868,13 @@
         <v>182</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G190" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I190" s="17" t="s">
         <v>13</v>
@@ -6915,13 +6891,13 @@
         <v>182</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G191" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I191" s="17" t="s">
         <v>13</v>
@@ -6938,13 +6914,13 @@
         <v>182</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G192" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I192" s="17" t="s">
         <v>13</v>
@@ -6961,13 +6937,13 @@
         <v>182</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G193" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I193" s="17" t="s">
         <v>13</v>
@@ -6984,13 +6960,13 @@
         <v>182</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G194" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I194" s="17" t="s">
         <v>13</v>
@@ -7010,10 +6986,10 @@
         <v>182</v>
       </c>
       <c r="G195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I195" s="17" t="s">
         <v>13</v>
@@ -7024,157 +7000,157 @@
     </row>
     <row r="196" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B196" t="s">
         <v>183</v>
       </c>
-      <c r="C196" t="s">
-        <v>568</v>
+      <c r="C196" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="G196" t="s">
-        <v>585</v>
+        <v>200</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I196" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J196" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B197" t="s">
         <v>183</v>
       </c>
-      <c r="C197" t="s">
-        <v>571</v>
+      <c r="C197" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="G197" t="s">
-        <v>586</v>
+        <v>201</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I197" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J197" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B198" t="s">
         <v>183</v>
       </c>
-      <c r="C198" t="s">
-        <v>572</v>
+      <c r="C198" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="G198" t="s">
-        <v>587</v>
+        <v>202</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I198" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J198" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J198" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B199" t="s">
         <v>183</v>
       </c>
-      <c r="C199" t="s">
-        <v>573</v>
+      <c r="C199" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="G199" t="s">
-        <v>588</v>
+        <v>203</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I199" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J199" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J199" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B200" t="s">
         <v>183</v>
       </c>
-      <c r="C200" t="s">
-        <v>574</v>
+      <c r="C200" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="G200" t="s">
-        <v>589</v>
+        <v>204</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I200" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J200" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B201" t="s">
         <v>183</v>
       </c>
-      <c r="C201" t="s">
-        <v>575</v>
+      <c r="C201" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="G201" t="s">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I201" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J201" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J201" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B202" t="s">
         <v>183</v>
       </c>
-      <c r="C202" t="s">
-        <v>183</v>
+      <c r="C202" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="G202" t="s">
-        <v>384</v>
+        <v>206</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="I202" s="6" t="s">
         <v>13</v>
@@ -7185,19 +7161,19 @@
     </row>
     <row r="203" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B203" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G203" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I203" s="6" t="s">
         <v>13</v>
@@ -7208,19 +7184,19 @@
     </row>
     <row r="204" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B204" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G204" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I204" s="6" t="s">
         <v>13</v>
@@ -7231,19 +7207,19 @@
     </row>
     <row r="205" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B205" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G205" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I205" s="6" t="s">
         <v>13</v>
@@ -7254,19 +7230,19 @@
     </row>
     <row r="206" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B206" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G206" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I206" s="6" t="s">
         <v>13</v>
@@ -7277,19 +7253,19 @@
     </row>
     <row r="207" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B207" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G207" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I207" s="6" t="s">
         <v>13</v>
@@ -7300,19 +7276,19 @@
     </row>
     <row r="208" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G208" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I208" s="6" t="s">
         <v>13</v>
@@ -7323,19 +7299,19 @@
     </row>
     <row r="209" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B209" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G209" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I209" s="6" t="s">
         <v>13</v>
@@ -7346,19 +7322,19 @@
     </row>
     <row r="210" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B210" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G210" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I210" s="6" t="s">
         <v>13</v>
@@ -7369,19 +7345,19 @@
     </row>
     <row r="211" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B211" t="s">
-        <v>184</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="C211" t="s">
+        <v>149</v>
       </c>
       <c r="G211" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H211" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I211" s="6" t="s">
         <v>13</v>
@@ -7392,19 +7368,19 @@
     </row>
     <row r="212" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B212" t="s">
-        <v>184</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>195</v>
+        <v>215</v>
+      </c>
+      <c r="C212" t="s">
+        <v>216</v>
       </c>
       <c r="G212" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H212" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I212" s="6" t="s">
         <v>13</v>
@@ -7415,19 +7391,19 @@
     </row>
     <row r="213" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>196</v>
+        <v>215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>217</v>
       </c>
       <c r="G213" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H213" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I213" s="6" t="s">
         <v>13</v>
@@ -7438,19 +7414,19 @@
     </row>
     <row r="214" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B214" t="s">
-        <v>184</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>197</v>
+        <v>215</v>
+      </c>
+      <c r="C214" t="s">
+        <v>218</v>
       </c>
       <c r="G214" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I214" s="6" t="s">
         <v>13</v>
@@ -7461,19 +7437,19 @@
     </row>
     <row r="215" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B215" t="s">
-        <v>184</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>198</v>
+        <v>215</v>
+      </c>
+      <c r="C215" t="s">
+        <v>219</v>
       </c>
       <c r="G215" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H215" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I215" s="6" t="s">
         <v>13</v>
@@ -7484,19 +7460,19 @@
     </row>
     <row r="216" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B216" t="s">
-        <v>184</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>199</v>
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>220</v>
       </c>
       <c r="G216" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H216" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I216" s="6" t="s">
         <v>13</v>
@@ -7507,19 +7483,19 @@
     </row>
     <row r="217" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B217" t="s">
-        <v>184</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>200</v>
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>221</v>
       </c>
       <c r="G217" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H217" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I217" s="6" t="s">
         <v>13</v>
@@ -7530,19 +7506,19 @@
     </row>
     <row r="218" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="G218" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H218" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I218" s="6" t="s">
         <v>13</v>
@@ -7553,19 +7529,19 @@
     </row>
     <row r="219" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B219" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C219" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G219" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H219" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I219" s="6" t="s">
         <v>13</v>
@@ -7576,19 +7552,19 @@
     </row>
     <row r="220" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G220" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H220" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I220" s="6" t="s">
         <v>13</v>
@@ -7599,19 +7575,19 @@
     </row>
     <row r="221" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C221" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G221" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I221" s="6" t="s">
         <v>13</v>
@@ -7622,19 +7598,19 @@
     </row>
     <row r="222" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G222" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I222" s="6" t="s">
         <v>13</v>
@@ -7645,19 +7621,19 @@
     </row>
     <row r="223" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G223" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H223" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I223" s="6" t="s">
         <v>13</v>
@@ -7668,180 +7644,180 @@
     </row>
     <row r="224" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B224" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C224" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="G224" t="s">
-        <v>235</v>
-      </c>
-      <c r="H224" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I224" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J224" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H224" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I224" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B225" t="s">
+        <v>583</v>
+      </c>
+      <c r="C225" t="s">
         <v>216</v>
       </c>
-      <c r="C225" t="s">
-        <v>223</v>
-      </c>
       <c r="G225" t="s">
-        <v>236</v>
-      </c>
-      <c r="H225" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I225" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J225" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H225" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I225" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B226" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C226" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G226" t="s">
-        <v>237</v>
-      </c>
-      <c r="H226" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I226" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J226" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="H226" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I226" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B227" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C227" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G227" t="s">
-        <v>238</v>
-      </c>
-      <c r="H227" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I227" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J227" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H227" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I227" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B228" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C228" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G228" t="s">
-        <v>239</v>
-      </c>
-      <c r="H228" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I228" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J228" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="H228" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I228" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B229" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C229" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G229" t="s">
-        <v>240</v>
-      </c>
-      <c r="H229" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I229" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J229" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H229" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I229" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B230" t="s">
-        <v>216</v>
+        <v>583</v>
       </c>
       <c r="C230" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G230" t="s">
-        <v>241</v>
-      </c>
-      <c r="H230" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J230" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H230" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I230" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B231" t="s">
+        <v>583</v>
+      </c>
+      <c r="C231" t="s">
+        <v>222</v>
+      </c>
+      <c r="G231" t="s">
         <v>591</v>
       </c>
-      <c r="C231" t="s">
-        <v>149</v>
-      </c>
-      <c r="G231" t="s">
-        <v>592</v>
-      </c>
       <c r="H231" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I231" s="18" t="s">
         <v>13</v>
@@ -7852,19 +7828,19 @@
     </row>
     <row r="232" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B232" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C232" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G232" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I232" s="18" t="s">
         <v>13</v>
@@ -7875,19 +7851,19 @@
     </row>
     <row r="233" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B233" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C233" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G233" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I233" s="18" t="s">
         <v>13</v>
@@ -7898,19 +7874,19 @@
     </row>
     <row r="234" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B234" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C234" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G234" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I234" s="18" t="s">
         <v>13</v>
@@ -7921,19 +7897,19 @@
     </row>
     <row r="235" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B235" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C235" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G235" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I235" s="18" t="s">
         <v>13</v>
@@ -7944,19 +7920,19 @@
     </row>
     <row r="236" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B236" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C236" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G236" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>13</v>
@@ -7967,19 +7943,19 @@
     </row>
     <row r="237" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B237" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C237" t="s">
-        <v>222</v>
+        <v>597</v>
       </c>
       <c r="G237" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I237" s="18" t="s">
         <v>13</v>
@@ -7990,88 +7966,88 @@
     </row>
     <row r="238" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B238" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G238" t="s">
-        <v>599</v>
-      </c>
-      <c r="H238" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="I238" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J238" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H238" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B239" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G239" t="s">
-        <v>600</v>
-      </c>
-      <c r="H239" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="I239" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J239" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H239" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I239" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B240" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G240" t="s">
-        <v>601</v>
-      </c>
-      <c r="H240" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="I240" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J240" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H240" t="s">
+        <v>397</v>
+      </c>
+      <c r="I240" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B241" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>226</v>
+        <v>598</v>
       </c>
       <c r="G241" t="s">
-        <v>602</v>
-      </c>
-      <c r="H241" s="18" t="s">
-        <v>399</v>
+        <v>610</v>
+      </c>
+      <c r="H241" t="s">
+        <v>397</v>
       </c>
       <c r="I241" s="18" t="s">
         <v>13</v>
@@ -8082,19 +8058,19 @@
     </row>
     <row r="242" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B242" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>227</v>
+        <v>599</v>
       </c>
       <c r="G242" t="s">
-        <v>603</v>
-      </c>
-      <c r="H242" s="18" t="s">
-        <v>399</v>
+        <v>611</v>
+      </c>
+      <c r="H242" t="s">
+        <v>397</v>
       </c>
       <c r="I242" s="18" t="s">
         <v>13</v>
@@ -8105,19 +8081,19 @@
     </row>
     <row r="243" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B243" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>228</v>
+        <v>600</v>
       </c>
       <c r="G243" t="s">
-        <v>604</v>
-      </c>
-      <c r="H243" s="18" t="s">
-        <v>399</v>
+        <v>612</v>
+      </c>
+      <c r="H243" t="s">
+        <v>397</v>
       </c>
       <c r="I243" s="18" t="s">
         <v>13</v>
@@ -8128,19 +8104,19 @@
     </row>
     <row r="244" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B244" t="s">
-        <v>591</v>
+        <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G244" t="s">
-        <v>617</v>
-      </c>
-      <c r="H244" s="18" t="s">
-        <v>399</v>
+        <v>613</v>
+      </c>
+      <c r="H244" t="s">
+        <v>397</v>
       </c>
       <c r="I244" s="18" t="s">
         <v>13</v>
@@ -8151,88 +8127,88 @@
     </row>
     <row r="245" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>243</v>
+        <v>602</v>
       </c>
       <c r="G245" t="s">
-        <v>243</v>
-      </c>
-      <c r="H245" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I245" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J245" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="H245" t="s">
+        <v>397</v>
+      </c>
+      <c r="I245" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
-        <v>244</v>
+        <v>603</v>
       </c>
       <c r="G246" t="s">
-        <v>244</v>
-      </c>
-      <c r="H246" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I246" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J246" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H246" t="s">
+        <v>397</v>
+      </c>
+      <c r="I246" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C247" t="s">
-        <v>245</v>
+        <v>604</v>
       </c>
       <c r="G247" t="s">
-        <v>245</v>
+        <v>616</v>
       </c>
       <c r="H247" t="s">
-        <v>399</v>
-      </c>
-      <c r="I247" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J247" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I247" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B248" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C248" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G248" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H248" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I248" s="18" t="s">
         <v>13</v>
@@ -8243,19 +8219,19 @@
     </row>
     <row r="249" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G249" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H249" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I249" s="18" t="s">
         <v>13</v>
@@ -8266,19 +8242,19 @@
     </row>
     <row r="250" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B250" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G250" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H250" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I250" s="18" t="s">
         <v>13</v>
@@ -8289,19 +8265,19 @@
     </row>
     <row r="251" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B251" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C251" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G251" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H251" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I251" s="18" t="s">
         <v>13</v>
@@ -8312,182 +8288,182 @@
     </row>
     <row r="252" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B252" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C252" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="G252" t="s">
-        <v>622</v>
-      </c>
-      <c r="H252" t="s">
-        <v>399</v>
-      </c>
-      <c r="I252" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J252" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H252" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I252" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B253" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G253" t="s">
-        <v>623</v>
-      </c>
-      <c r="H253" t="s">
-        <v>399</v>
-      </c>
-      <c r="I253" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J253" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="H253" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I253" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B254" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G254" t="s">
-        <v>624</v>
-      </c>
-      <c r="H254" t="s">
-        <v>399</v>
-      </c>
-      <c r="I254" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J254" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="H254" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I254" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J254" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B255" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C255" t="s">
-        <v>613</v>
+        <v>246</v>
       </c>
       <c r="G255" t="s">
-        <v>625</v>
-      </c>
-      <c r="H255" t="s">
-        <v>399</v>
-      </c>
-      <c r="I255" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J255" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="H255" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B256" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C256" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="G256" t="s">
-        <v>626</v>
-      </c>
-      <c r="H256" t="s">
-        <v>399</v>
-      </c>
-      <c r="I256" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J256" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="H256" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I256" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B257" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C257" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G257" t="s">
-        <v>627</v>
-      </c>
-      <c r="H257" t="s">
-        <v>399</v>
-      </c>
-      <c r="I257" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J257" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="H257" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I257" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J257" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B258" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G258" t="s">
-        <v>628</v>
-      </c>
-      <c r="H258" t="s">
-        <v>399</v>
-      </c>
-      <c r="I258" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J258" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="H258" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I258" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J258" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B259" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>629</v>
+        <v>249</v>
       </c>
       <c r="G259" t="s">
-        <v>632</v>
+        <v>383</v>
       </c>
       <c r="H259" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I259" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="I259" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J259" s="7" t="s">
@@ -8496,42 +8472,42 @@
     </row>
     <row r="260" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>185</v>
-      </c>
-      <c r="B260" t="s">
-        <v>246</v>
-      </c>
-      <c r="C260" t="s">
-        <v>630</v>
+        <v>184</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>657</v>
       </c>
       <c r="G260" t="s">
-        <v>633</v>
-      </c>
-      <c r="H260" s="22" t="s">
-        <v>399</v>
+        <v>655</v>
+      </c>
+      <c r="H260" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="I260" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J260" s="22" t="s">
+      <c r="J260" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>185</v>
-      </c>
-      <c r="B261" t="s">
-        <v>246</v>
-      </c>
-      <c r="C261" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>622</v>
       </c>
       <c r="G261" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="H261" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I261" s="22" t="s">
         <v>13</v>
@@ -8542,21 +8518,21 @@
     </row>
     <row r="262" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>185</v>
-      </c>
-      <c r="B262" t="s">
-        <v>247</v>
-      </c>
-      <c r="C262" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>658</v>
       </c>
       <c r="G262" t="s">
-        <v>249</v>
-      </c>
-      <c r="H262" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I262" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I262" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J262" s="22" t="s">
@@ -8565,42 +8541,42 @@
     </row>
     <row r="263" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>185</v>
-      </c>
-      <c r="B263" t="s">
-        <v>248</v>
-      </c>
-      <c r="C263" t="s">
-        <v>629</v>
+        <v>184</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>657</v>
       </c>
       <c r="G263" t="s">
-        <v>635</v>
-      </c>
-      <c r="H263" s="17" t="s">
-        <v>399</v>
+        <v>660</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="I263" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J263" s="7" t="s">
+      <c r="J263" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>185</v>
-      </c>
-      <c r="B264" t="s">
-        <v>248</v>
-      </c>
-      <c r="C264" t="s">
-        <v>630</v>
+        <v>184</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>622</v>
       </c>
       <c r="G264" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="H264" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I264" s="22" t="s">
         <v>13</v>
@@ -8611,19 +8587,19 @@
     </row>
     <row r="265" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>185</v>
-      </c>
-      <c r="B265" t="s">
-        <v>248</v>
-      </c>
-      <c r="C265" t="s">
-        <v>631</v>
+        <v>184</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>658</v>
       </c>
       <c r="G265" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="H265" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I265" s="22" t="s">
         <v>13</v>
@@ -8634,65 +8610,65 @@
     </row>
     <row r="266" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>185</v>
-      </c>
-      <c r="B266" t="s">
-        <v>250</v>
-      </c>
-      <c r="C266" t="s">
-        <v>250</v>
+        <v>184</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>657</v>
       </c>
       <c r="G266" t="s">
-        <v>385</v>
-      </c>
-      <c r="H266" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="I266" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J266" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="H266" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I266" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J266" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>665</v>
+        <v>622</v>
       </c>
       <c r="G267" t="s">
-        <v>663</v>
-      </c>
-      <c r="H267" s="17" t="s">
-        <v>399</v>
+        <v>664</v>
+      </c>
+      <c r="H267" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="I267" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J267" s="7" t="s">
+      <c r="J267" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="G268" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H268" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I268" s="22" t="s">
         <v>13</v>
@@ -8703,19 +8679,19 @@
     </row>
     <row r="269" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C269" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="G269" t="s">
         <v>666</v>
       </c>
-      <c r="G269" t="s">
-        <v>667</v>
-      </c>
       <c r="H269" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I269" s="22" t="s">
         <v>13</v>
@@ -8726,19 +8702,19 @@
     </row>
     <row r="270" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>665</v>
+        <v>622</v>
       </c>
       <c r="G270" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H270" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I270" s="22" t="s">
         <v>13</v>
@@ -8749,19 +8725,19 @@
     </row>
     <row r="271" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="G271" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H271" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I271" s="22" t="s">
         <v>13</v>
@@ -8772,19 +8748,19 @@
     </row>
     <row r="272" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G272" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H272" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I272" s="22" t="s">
         <v>13</v>
@@ -8795,19 +8771,19 @@
     </row>
     <row r="273" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>665</v>
+        <v>622</v>
       </c>
       <c r="G273" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H273" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I273" s="22" t="s">
         <v>13</v>
@@ -8818,19 +8794,19 @@
     </row>
     <row r="274" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="G274" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H274" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I274" s="22" t="s">
         <v>13</v>
@@ -8841,182 +8817,182 @@
     </row>
     <row r="275" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>185</v>
-      </c>
-      <c r="B275" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C275" s="12" t="s">
-        <v>666</v>
+        <v>184</v>
+      </c>
+      <c r="B275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C275" t="s">
+        <v>255</v>
       </c>
       <c r="G275" t="s">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="H275" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I275" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J275" s="22" t="s">
+      <c r="J275" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>185</v>
-      </c>
-      <c r="B276" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>665</v>
+        <v>184</v>
+      </c>
+      <c r="B276" t="s">
+        <v>256</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="G276" t="s">
-        <v>674</v>
-      </c>
-      <c r="H276" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I276" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J276" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H276" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I276" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J276" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>185</v>
-      </c>
-      <c r="B277" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>630</v>
+        <v>184</v>
+      </c>
+      <c r="B277" t="s">
+        <v>256</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="G277" t="s">
-        <v>675</v>
-      </c>
-      <c r="H277" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I277" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J277" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="H277" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I277" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J277" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>185</v>
-      </c>
-      <c r="B278" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>666</v>
+        <v>184</v>
+      </c>
+      <c r="B278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="G278" t="s">
-        <v>676</v>
-      </c>
-      <c r="H278" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I278" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J278" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H278" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I278" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J278" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>185</v>
-      </c>
-      <c r="B279" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C279" s="12" t="s">
-        <v>665</v>
+        <v>184</v>
+      </c>
+      <c r="B279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="G279" t="s">
-        <v>677</v>
-      </c>
-      <c r="H279" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I279" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J279" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H279" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I279" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J279" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>185</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C280" s="12" t="s">
-        <v>630</v>
+        <v>184</v>
+      </c>
+      <c r="B280" t="s">
+        <v>256</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="G280" t="s">
-        <v>678</v>
-      </c>
-      <c r="H280" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I280" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J280" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="H280" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I280" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J280" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>185</v>
-      </c>
-      <c r="B281" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C281" s="12" t="s">
-        <v>666</v>
+        <v>184</v>
+      </c>
+      <c r="B281" t="s">
+        <v>256</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="G281" t="s">
-        <v>679</v>
-      </c>
-      <c r="H281" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I281" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J281" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="H281" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I281" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J281" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B282" t="s">
         <v>256</v>
       </c>
-      <c r="C282" t="s">
-        <v>256</v>
+      <c r="C282" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="G282" t="s">
-        <v>638</v>
-      </c>
-      <c r="H282" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I282" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="H282" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I282" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J282" s="7" t="s">
@@ -9025,21 +9001,21 @@
     </row>
     <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B283" t="s">
-        <v>257</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>258</v>
+        <v>272</v>
+      </c>
+      <c r="C283" t="s">
+        <v>621</v>
       </c>
       <c r="G283" t="s">
-        <v>265</v>
+        <v>631</v>
       </c>
       <c r="H283" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="I283" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I283" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J283" s="7" t="s">
@@ -9048,65 +9024,65 @@
     </row>
     <row r="284" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B284" t="s">
-        <v>257</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>259</v>
+        <v>272</v>
+      </c>
+      <c r="C284" t="s">
+        <v>622</v>
       </c>
       <c r="G284" t="s">
-        <v>266</v>
-      </c>
-      <c r="H284" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="I284" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J284" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="H284" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I284" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J284" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B285" t="s">
-        <v>257</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>260</v>
+        <v>272</v>
+      </c>
+      <c r="C285" t="s">
+        <v>623</v>
       </c>
       <c r="G285" t="s">
-        <v>267</v>
-      </c>
-      <c r="H285" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="I285" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J285" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H285" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I285" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J285" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B286" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G286" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="H286" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I286" s="7" t="s">
         <v>13</v>
@@ -9117,19 +9093,19 @@
     </row>
     <row r="287" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B287" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G287" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H287" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I287" s="7" t="s">
         <v>13</v>
@@ -9140,19 +9116,19 @@
     </row>
     <row r="288" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B288" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="G288" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H288" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I288" s="7" t="s">
         <v>13</v>
@@ -9163,19 +9139,19 @@
     </row>
     <row r="289" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="B289" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G289" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H289" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I289" s="7" t="s">
         <v>13</v>
@@ -9186,19 +9162,19 @@
     </row>
     <row r="290" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B290" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C290" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="G290" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H290" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I290" s="22" t="s">
         <v>13</v>
@@ -9209,19 +9185,19 @@
     </row>
     <row r="291" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B291" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C291" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G291" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H291" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I291" s="22" t="s">
         <v>13</v>
@@ -9232,19 +9208,19 @@
     </row>
     <row r="292" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B292" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C292" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G292" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H292" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I292" s="22" t="s">
         <v>13</v>
@@ -9255,19 +9231,19 @@
     </row>
     <row r="293" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B293" t="s">
+        <v>283</v>
+      </c>
+      <c r="C293" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C293" s="9" t="s">
-        <v>275</v>
-      </c>
       <c r="G293" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H293" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I293" s="7" t="s">
         <v>13</v>
@@ -9278,19 +9254,19 @@
     </row>
     <row r="294" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B294" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G294" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H294" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I294" s="7" t="s">
         <v>13</v>
@@ -9301,19 +9277,19 @@
     </row>
     <row r="295" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B295" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G295" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H295" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I295" s="7" t="s">
         <v>13</v>
@@ -9324,19 +9300,19 @@
     </row>
     <row r="296" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B296" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G296" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H296" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I296" s="7" t="s">
         <v>13</v>
@@ -9347,19 +9323,19 @@
     </row>
     <row r="297" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B297" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C297" t="s">
-        <v>629</v>
+        <v>288</v>
       </c>
       <c r="G297" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H297" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I297" s="22" t="s">
         <v>13</v>
@@ -9370,65 +9346,65 @@
     </row>
     <row r="298" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>283</v>
-      </c>
-      <c r="C298" t="s">
-        <v>630</v>
+        <v>289</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="G298" t="s">
-        <v>643</v>
-      </c>
-      <c r="H298" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I298" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J298" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="H298" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I298" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J298" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B299" t="s">
-        <v>283</v>
-      </c>
-      <c r="C299" t="s">
-        <v>631</v>
+        <v>289</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="G299" t="s">
-        <v>644</v>
-      </c>
-      <c r="H299" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="I299" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J299" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H299" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I299" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J299" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B300" t="s">
-        <v>284</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>275</v>
+        <v>289</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="G300" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H300" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I300" s="7" t="s">
         <v>13</v>
@@ -9439,19 +9415,19 @@
     </row>
     <row r="301" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B301" t="s">
-        <v>284</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>276</v>
+        <v>289</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="G301" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H301" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I301" s="7" t="s">
         <v>13</v>
@@ -9462,19 +9438,19 @@
     </row>
     <row r="302" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B302" t="s">
-        <v>284</v>
-      </c>
-      <c r="C302" s="9" t="s">
-        <v>277</v>
+        <v>289</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="G302" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="H302" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I302" s="7" t="s">
         <v>13</v>
@@ -9485,19 +9461,19 @@
     </row>
     <row r="303" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>278</v>
+        <v>289</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="G303" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="H303" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I303" s="7" t="s">
         <v>13</v>
@@ -9508,21 +9484,21 @@
     </row>
     <row r="304" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B304" t="s">
         <v>289</v>
       </c>
-      <c r="C304" t="s">
-        <v>289</v>
+      <c r="C304" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="G304" t="s">
-        <v>645</v>
+        <v>315</v>
       </c>
       <c r="H304" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I304" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I304" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J304" s="7" t="s">
@@ -9531,19 +9507,19 @@
     </row>
     <row r="305" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B305" t="s">
-        <v>290</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>291</v>
+        <v>297</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="G305" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H305" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I305" s="7" t="s">
         <v>13</v>
@@ -9554,19 +9530,19 @@
     </row>
     <row r="306" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B306" t="s">
-        <v>290</v>
-      </c>
-      <c r="C306" s="13" t="s">
-        <v>292</v>
+        <v>297</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="G306" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H306" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I306" s="7" t="s">
         <v>13</v>
@@ -9577,19 +9553,19 @@
     </row>
     <row r="307" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B307" t="s">
-        <v>290</v>
-      </c>
-      <c r="C307" s="13" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="G307" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H307" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I307" s="7" t="s">
         <v>13</v>
@@ -9600,19 +9576,19 @@
     </row>
     <row r="308" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B308" t="s">
-        <v>290</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="G308" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H308" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I308" s="7" t="s">
         <v>13</v>
@@ -9623,19 +9599,19 @@
     </row>
     <row r="309" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B309" t="s">
-        <v>290</v>
-      </c>
-      <c r="C309" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="G309" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H309" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I309" s="7" t="s">
         <v>13</v>
@@ -9646,19 +9622,19 @@
     </row>
     <row r="310" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B310" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="G310" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H310" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I310" s="7" t="s">
         <v>13</v>
@@ -9669,19 +9645,19 @@
     </row>
     <row r="311" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B311" t="s">
-        <v>290</v>
-      </c>
-      <c r="C311" s="13" t="s">
         <v>297</v>
       </c>
+      <c r="C311" s="9" t="s">
+        <v>304</v>
+      </c>
       <c r="G311" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H311" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I311" s="7" t="s">
         <v>13</v>
@@ -9692,19 +9668,19 @@
     </row>
     <row r="312" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B312" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G312" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H312" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I312" s="7" t="s">
         <v>13</v>
@@ -9715,19 +9691,19 @@
     </row>
     <row r="313" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G313" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H313" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I313" s="7" t="s">
         <v>13</v>
@@ -9738,19 +9714,19 @@
     </row>
     <row r="314" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B314" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G314" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H314" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I314" s="7" t="s">
         <v>13</v>
@@ -9761,19 +9737,19 @@
     </row>
     <row r="315" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B315" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G315" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H315" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I315" s="7" t="s">
         <v>13</v>
@@ -9784,21 +9760,21 @@
     </row>
     <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B316" t="s">
-        <v>298</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>303</v>
+        <v>327</v>
+      </c>
+      <c r="C316" t="s">
+        <v>327</v>
       </c>
       <c r="G316" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="H316" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I316" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I316" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J316" s="7" t="s">
@@ -9807,21 +9783,21 @@
     </row>
     <row r="317" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B317" t="s">
-        <v>298</v>
-      </c>
-      <c r="C317" s="9" t="s">
-        <v>304</v>
+        <v>328</v>
+      </c>
+      <c r="C317" t="s">
+        <v>328</v>
       </c>
       <c r="G317" t="s">
-        <v>322</v>
+        <v>638</v>
       </c>
       <c r="H317" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I317" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I317" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J317" s="7" t="s">
@@ -9830,21 +9806,21 @@
     </row>
     <row r="318" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B318" t="s">
-        <v>298</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>305</v>
+        <v>329</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>639</v>
       </c>
       <c r="G318" t="s">
-        <v>323</v>
+        <v>644</v>
       </c>
       <c r="H318" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I318" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I318" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J318" s="7" t="s">
@@ -9853,113 +9829,113 @@
     </row>
     <row r="319" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B319" t="s">
-        <v>298</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>306</v>
+        <v>329</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>640</v>
       </c>
       <c r="G319" t="s">
-        <v>324</v>
-      </c>
-      <c r="H319" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I319" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J319" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="H319" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I319" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J319" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B320" t="s">
-        <v>298</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>307</v>
+        <v>329</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>641</v>
       </c>
       <c r="G320" t="s">
-        <v>325</v>
-      </c>
-      <c r="H320" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I320" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J320" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="H320" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I320" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J320" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B321" t="s">
-        <v>298</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>308</v>
+        <v>329</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="G321" t="s">
-        <v>326</v>
-      </c>
-      <c r="H321" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I321" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J321" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="H321" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I321" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J321" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="B322" t="s">
-        <v>298</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>309</v>
+        <v>329</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="G322" t="s">
-        <v>327</v>
-      </c>
-      <c r="H322" s="17" t="s">
-        <v>428</v>
-      </c>
-      <c r="I322" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J322" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="H322" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I322" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J322" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B323" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C323" t="s">
-        <v>328</v>
+        <v>652</v>
       </c>
       <c r="G323" t="s">
-        <v>386</v>
+        <v>649</v>
       </c>
       <c r="H323" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I323" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I323" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J323" s="7" t="s">
@@ -9968,159 +9944,159 @@
     </row>
     <row r="324" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B324" t="s">
-        <v>329</v>
-      </c>
-      <c r="C324" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>653</v>
       </c>
       <c r="G324" t="s">
-        <v>646</v>
-      </c>
-      <c r="H324" s="17" t="s">
-        <v>399</v>
+        <v>650</v>
+      </c>
+      <c r="H324" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="I324" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J324" s="7" t="s">
+      <c r="J324" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B325" t="s">
         <v>330</v>
       </c>
-      <c r="C325" s="8" t="s">
-        <v>647</v>
+      <c r="C325" t="s">
+        <v>654</v>
       </c>
       <c r="G325" t="s">
-        <v>652</v>
-      </c>
-      <c r="H325" s="17" t="s">
-        <v>429</v>
+        <v>651</v>
+      </c>
+      <c r="H325" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="I325" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J325" s="7" t="s">
+      <c r="J325" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B326" t="s">
-        <v>330</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>648</v>
+        <v>332</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="G326" t="s">
-        <v>653</v>
-      </c>
-      <c r="H326" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I326" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J326" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I326" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J326" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B327" t="s">
-        <v>330</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>649</v>
+        <v>332</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="G327" t="s">
-        <v>654</v>
-      </c>
-      <c r="H327" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I327" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J327" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="H327" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I327" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J327" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B328" t="s">
-        <v>330</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>650</v>
+        <v>332</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="G328" t="s">
-        <v>655</v>
-      </c>
-      <c r="H328" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I328" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J328" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="H328" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I328" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J328" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>651</v>
+        <v>332</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="G329" t="s">
-        <v>656</v>
-      </c>
-      <c r="H329" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I329" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J329" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="H329" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I329" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J329" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
-      </c>
-      <c r="C330" t="s">
-        <v>660</v>
+        <v>332</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="G330" t="s">
-        <v>657</v>
+        <v>345</v>
       </c>
       <c r="H330" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="I330" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I330" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J330" s="7" t="s">
@@ -10129,65 +10105,65 @@
     </row>
     <row r="331" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B331" t="s">
-        <v>331</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>661</v>
+        <v>332</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="G331" t="s">
-        <v>658</v>
-      </c>
-      <c r="H331" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I331" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J331" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="H331" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I331" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J331" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
-      </c>
-      <c r="C332" t="s">
-        <v>662</v>
+        <v>332</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="G332" t="s">
-        <v>659</v>
-      </c>
-      <c r="H332" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="I332" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J332" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="H332" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I332" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J332" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G333" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H333" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I333" s="7" t="s">
         <v>13</v>
@@ -10198,19 +10174,19 @@
     </row>
     <row r="334" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G334" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="H334" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I334" s="7" t="s">
         <v>13</v>
@@ -10221,19 +10197,19 @@
     </row>
     <row r="335" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B335" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G335" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H335" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I335" s="7" t="s">
         <v>13</v>
@@ -10244,19 +10220,19 @@
     </row>
     <row r="336" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B336" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="G336" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="H336" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I336" s="7" t="s">
         <v>13</v>
@@ -10267,19 +10243,19 @@
     </row>
     <row r="337" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B337" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="G337" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H337" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I337" s="7" t="s">
         <v>13</v>
@@ -10290,19 +10266,19 @@
     </row>
     <row r="338" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="G338" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H338" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I338" s="7" t="s">
         <v>13</v>
@@ -10313,19 +10289,19 @@
     </row>
     <row r="339" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B339" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="G339" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H339" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I339" s="7" t="s">
         <v>13</v>
@@ -10336,19 +10312,19 @@
     </row>
     <row r="340" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B340" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="G340" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H340" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I340" s="7" t="s">
         <v>13</v>
@@ -10359,19 +10335,19 @@
     </row>
     <row r="341" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B341" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G341" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H341" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I341" s="7" t="s">
         <v>13</v>
@@ -10382,19 +10358,19 @@
     </row>
     <row r="342" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B342" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G342" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H342" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I342" s="7" t="s">
         <v>13</v>
@@ -10405,19 +10381,19 @@
     </row>
     <row r="343" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B343" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="G343" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="H343" s="17" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="I343" s="7" t="s">
         <v>13</v>
@@ -10428,19 +10404,19 @@
     </row>
     <row r="344" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B344" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="G344" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="H344" s="17" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="I344" s="7" t="s">
         <v>13</v>
@@ -10451,19 +10427,19 @@
     </row>
     <row r="345" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B345" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="G345" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H345" s="17" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="I345" s="7" t="s">
         <v>13</v>
@@ -10474,19 +10450,19 @@
     </row>
     <row r="346" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B346" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="G346" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H346" s="17" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="I346" s="7" t="s">
         <v>13</v>
@@ -10497,185 +10473,24 @@
     </row>
     <row r="347" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B347" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="C347" s="9" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G347" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H347" s="17" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="I347" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J347" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>379</v>
-      </c>
-      <c r="B348" t="s">
-        <v>332</v>
-      </c>
-      <c r="C348" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G348" t="s">
-        <v>366</v>
-      </c>
-      <c r="H348" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="I348" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J348" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>379</v>
-      </c>
-      <c r="B349" t="s">
-        <v>332</v>
-      </c>
-      <c r="C349" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G349" t="s">
-        <v>367</v>
-      </c>
-      <c r="H349" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="I349" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J349" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>379</v>
-      </c>
-      <c r="B350" t="s">
-        <v>368</v>
-      </c>
-      <c r="C350" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G350" t="s">
-        <v>374</v>
-      </c>
-      <c r="H350" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I350" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J350" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>379</v>
-      </c>
-      <c r="B351" t="s">
-        <v>368</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G351" t="s">
-        <v>375</v>
-      </c>
-      <c r="H351" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I351" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J351" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>379</v>
-      </c>
-      <c r="B352" t="s">
-        <v>368</v>
-      </c>
-      <c r="C352" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G352" t="s">
-        <v>376</v>
-      </c>
-      <c r="H352" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I352" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J352" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>379</v>
-      </c>
-      <c r="B353" t="s">
-        <v>368</v>
-      </c>
-      <c r="C353" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G353" t="s">
-        <v>377</v>
-      </c>
-      <c r="H353" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I353" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J353" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>379</v>
-      </c>
-      <c r="B354" t="s">
-        <v>368</v>
-      </c>
-      <c r="C354" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="G354" t="s">
-        <v>378</v>
-      </c>
-      <c r="H354" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="I354" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J354" s="7" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Input/dap/dap_mpca_preliminary_pop_groups.xlsx
+++ b/Input/dap/dap_mpca_preliminary_pop_groups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="677">
   <si>
     <t>research.question</t>
   </si>
@@ -2040,6 +2040,21 @@
   </si>
   <si>
     <t>p6_v_decreased</t>
+  </si>
+  <si>
+    <t>% of households with at least one member with a disability</t>
+  </si>
+  <si>
+    <t>chronic_illness</t>
+  </si>
+  <si>
+    <t>amm1</t>
+  </si>
+  <si>
+    <t>hh25</t>
+  </si>
+  <si>
+    <t>shock1</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2151,6 +2166,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -2433,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J347"/>
+  <dimension ref="A1:J351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="A196:XFD202"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,10 +2506,10 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2519,10 +2536,10 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2549,10 +2566,10 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2629,10 +2646,10 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2811,10 +2828,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>672</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>672</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -2835,26 +2852,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2863,13 +2886,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>546</v>
+        <v>29</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>397</v>
@@ -2882,17 +2905,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>397</v>
@@ -2900,7 +2923,7 @@
       <c r="I17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2912,10 +2935,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>397</v>
@@ -2935,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>397</v>
@@ -2958,10 +2981,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>397</v>
@@ -2974,17 +2997,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G21" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>397</v>
@@ -2992,22 +3015,22 @@
       <c r="I21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>397</v>
@@ -3015,7 +3038,7 @@
       <c r="I22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3027,10 +3050,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>397</v>
@@ -3050,64 +3073,64 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
+        <v>560</v>
+      </c>
+      <c r="G24" t="s">
+        <v>564</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>561</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>565</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="H25" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>31</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>556</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
       <c r="H26" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3119,10 +3142,10 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>398</v>
@@ -3142,10 +3165,10 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>398</v>
@@ -3165,10 +3188,10 @@
         <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>398</v>
@@ -3188,10 +3211,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>398</v>
@@ -3211,10 +3234,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>398</v>
@@ -3234,10 +3257,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32" s="17" t="s">
         <v>398</v>
@@ -3257,10 +3280,10 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>398</v>
@@ -3277,18 +3300,18 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>557</v>
+        <v>40</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -3300,16 +3323,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>13</v>
@@ -3319,17 +3342,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>397</v>
@@ -3337,7 +3360,7 @@
       <c r="I36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3349,10 +3372,10 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>397</v>
@@ -3372,10 +3395,10 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>397</v>
@@ -3395,10 +3418,10 @@
         <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>397</v>
@@ -3418,10 +3441,10 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>397</v>
@@ -3441,10 +3464,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H41" s="17" t="s">
         <v>397</v>
@@ -3463,42 +3486,42 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" t="s">
+        <v>443</v>
+      </c>
+      <c r="G42" t="s">
+        <v>436</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>437</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s">
-        <v>66</v>
-      </c>
       <c r="H43" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="5" t="s">
+      <c r="I43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3510,18 +3533,18 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="I44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3533,10 +3556,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>397</v>
@@ -3556,10 +3579,10 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>397</v>
@@ -3579,10 +3602,10 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>397</v>
@@ -3602,10 +3625,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48" s="17" t="s">
         <v>397</v>
@@ -3625,10 +3648,10 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H49" s="17" t="s">
         <v>397</v>
@@ -3648,10 +3671,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H50" s="17" t="s">
         <v>397</v>
@@ -3671,10 +3694,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>397</v>
@@ -3694,10 +3717,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>397</v>
@@ -3717,10 +3740,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H53" s="17" t="s">
         <v>397</v>
@@ -3740,10 +3763,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H54" s="17" t="s">
         <v>397</v>
@@ -3760,16 +3783,16 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>13</v>
@@ -3783,21 +3806,21 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>445</v>
+        <v>91</v>
       </c>
       <c r="H56" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="17" t="s">
+      <c r="I56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3809,10 +3832,10 @@
         <v>451</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H57" s="17" t="s">
         <v>399</v>
@@ -3832,10 +3855,10 @@
         <v>451</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H58" s="17" t="s">
         <v>399</v>
@@ -3855,10 +3878,10 @@
         <v>451</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H59" s="17" t="s">
         <v>399</v>
@@ -3878,10 +3901,10 @@
         <v>451</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H60" s="17" t="s">
         <v>399</v>
@@ -3901,10 +3924,10 @@
         <v>451</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H61" s="17" t="s">
         <v>399</v>
@@ -3921,21 +3944,21 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
+        <v>451</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G62" t="s">
-        <v>92</v>
+        <v>450</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J62" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3944,21 +3967,21 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>458</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>452</v>
+        <v>92</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="I63" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="17" t="s">
+      <c r="I63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3970,10 +3993,10 @@
         <v>458</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H64" s="17" t="s">
         <v>400</v>
@@ -3993,10 +4016,10 @@
         <v>458</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H65" s="17" t="s">
         <v>400</v>
@@ -4016,10 +4039,10 @@
         <v>458</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H66" s="17" t="s">
         <v>400</v>
@@ -4039,10 +4062,10 @@
         <v>458</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H67" s="17" t="s">
         <v>400</v>
@@ -4062,10 +4085,10 @@
         <v>458</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H68" s="17" t="s">
         <v>400</v>
@@ -4082,21 +4105,21 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
+        <v>458</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>457</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4105,21 +4128,21 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
       </c>
       <c r="G70" t="s">
-        <v>466</v>
+        <v>93</v>
       </c>
       <c r="H70" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="I70" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="17" t="s">
+      <c r="I70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4131,10 +4154,10 @@
         <v>465</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H71" s="17" t="s">
         <v>401</v>
@@ -4154,10 +4177,10 @@
         <v>465</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>401</v>
@@ -4177,10 +4200,10 @@
         <v>465</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H73" s="17" t="s">
         <v>401</v>
@@ -4200,10 +4223,10 @@
         <v>465</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H74" s="17" t="s">
         <v>401</v>
@@ -4223,10 +4246,10 @@
         <v>465</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H75" s="17" t="s">
         <v>401</v>
@@ -4243,21 +4266,21 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>82</v>
+        <v>465</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>471</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4268,19 +4291,19 @@
       <c r="B77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>459</v>
+      <c r="C77" t="s">
+        <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>472</v>
+        <v>94</v>
       </c>
       <c r="H77" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="I77" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="17" t="s">
+      <c r="I77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4292,10 +4315,10 @@
         <v>78</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G78" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H78" s="17" t="s">
         <v>402</v>
@@ -4315,10 +4338,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H79" s="17" t="s">
         <v>402</v>
@@ -4338,10 +4361,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H80" s="17" t="s">
         <v>402</v>
@@ -4361,10 +4384,10 @@
         <v>78</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G81" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H81" s="17" t="s">
         <v>402</v>
@@ -4384,10 +4407,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G82" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H82" s="17" t="s">
         <v>402</v>
@@ -4406,19 +4429,19 @@
       <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C83" t="s">
-        <v>83</v>
+      <c r="C83" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>477</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4427,21 +4450,21 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>478</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
       </c>
       <c r="G84" t="s">
-        <v>479</v>
+        <v>95</v>
       </c>
       <c r="H84" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="I84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="17" t="s">
+      <c r="I84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4453,10 +4476,10 @@
         <v>478</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G85" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H85" s="17" t="s">
         <v>403</v>
@@ -4476,10 +4499,10 @@
         <v>478</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H86" s="17" t="s">
         <v>403</v>
@@ -4499,10 +4522,10 @@
         <v>478</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H87" s="17" t="s">
         <v>403</v>
@@ -4522,10 +4545,10 @@
         <v>478</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H88" s="17" t="s">
         <v>403</v>
@@ -4545,10 +4568,10 @@
         <v>478</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G89" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>403</v>
@@ -4565,21 +4588,21 @@
         <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
+        <v>478</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>484</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I90" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4588,21 +4611,21 @@
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>485</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
       </c>
       <c r="G91" t="s">
-        <v>486</v>
+        <v>96</v>
       </c>
       <c r="H91" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="I91" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="17" t="s">
+      <c r="I91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4614,10 +4637,10 @@
         <v>485</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H92" s="17" t="s">
         <v>404</v>
@@ -4637,10 +4660,10 @@
         <v>485</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G93" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H93" s="17" t="s">
         <v>404</v>
@@ -4660,10 +4683,10 @@
         <v>485</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G94" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H94" s="17" t="s">
         <v>404</v>
@@ -4683,10 +4706,10 @@
         <v>485</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G95" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H95" s="17" t="s">
         <v>404</v>
@@ -4706,10 +4729,10 @@
         <v>485</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G96" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>404</v>
@@ -4726,21 +4749,21 @@
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>85</v>
+        <v>485</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I97" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4749,21 +4772,21 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>492</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>493</v>
+        <v>97</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="I98" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="17" t="s">
+      <c r="I98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4775,10 +4798,10 @@
         <v>492</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H99" s="17" t="s">
         <v>405</v>
@@ -4798,10 +4821,10 @@
         <v>492</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G100" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H100" s="17" t="s">
         <v>405</v>
@@ -4821,10 +4844,10 @@
         <v>492</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G101" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H101" s="17" t="s">
         <v>405</v>
@@ -4844,10 +4867,10 @@
         <v>492</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G102" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H102" s="17" t="s">
         <v>405</v>
@@ -4867,10 +4890,10 @@
         <v>492</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H103" s="17" t="s">
         <v>405</v>
@@ -4887,21 +4910,21 @@
         <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" t="s">
-        <v>86</v>
+        <v>492</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G104" t="s">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J104" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4910,21 +4933,21 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>505</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
       </c>
       <c r="G105" t="s">
-        <v>499</v>
+        <v>98</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="I105" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="17" t="s">
+      <c r="I105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4936,10 +4959,10 @@
         <v>505</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>406</v>
@@ -4959,10 +4982,10 @@
         <v>505</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H107" s="17" t="s">
         <v>406</v>
@@ -4982,10 +5005,10 @@
         <v>505</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G108" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H108" s="17" t="s">
         <v>406</v>
@@ -5005,10 +5028,10 @@
         <v>505</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G109" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H109" s="17" t="s">
         <v>406</v>
@@ -5028,10 +5051,10 @@
         <v>505</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G110" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>406</v>
@@ -5048,21 +5071,21 @@
         <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" t="s">
-        <v>87</v>
+        <v>505</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G111" t="s">
-        <v>99</v>
+        <v>504</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5071,21 +5094,21 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>506</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C112" t="s">
+        <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>507</v>
+        <v>99</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="I112" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="17" t="s">
+      <c r="I112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5097,10 +5120,10 @@
         <v>506</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G113" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H113" s="17" t="s">
         <v>407</v>
@@ -5120,10 +5143,10 @@
         <v>506</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G114" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>407</v>
@@ -5143,10 +5166,10 @@
         <v>506</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G115" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H115" s="17" t="s">
         <v>407</v>
@@ -5166,10 +5189,10 @@
         <v>506</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G116" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H116" s="17" t="s">
         <v>407</v>
@@ -5189,10 +5212,10 @@
         <v>506</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G117" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H117" s="17" t="s">
         <v>407</v>
@@ -5209,21 +5232,21 @@
         <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" t="s">
-        <v>88</v>
+        <v>506</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G118" t="s">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5234,19 +5257,19 @@
       <c r="B119" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="20" t="s">
-        <v>459</v>
+      <c r="C119" t="s">
+        <v>88</v>
       </c>
       <c r="G119" t="s">
-        <v>513</v>
+        <v>100</v>
       </c>
       <c r="H119" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="I119" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="17" t="s">
+      <c r="I119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5258,10 +5281,10 @@
         <v>78</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G120" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H120" s="17" t="s">
         <v>408</v>
@@ -5281,10 +5304,10 @@
         <v>78</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G121" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H121" s="17" t="s">
         <v>408</v>
@@ -5304,10 +5327,10 @@
         <v>78</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G122" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H122" s="17" t="s">
         <v>408</v>
@@ -5327,10 +5350,10 @@
         <v>78</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G123" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H123" s="17" t="s">
         <v>408</v>
@@ -5350,10 +5373,10 @@
         <v>78</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G124" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H124" s="17" t="s">
         <v>408</v>
@@ -5372,19 +5395,19 @@
       <c r="B125" t="s">
         <v>78</v>
       </c>
-      <c r="C125" t="s">
-        <v>89</v>
+      <c r="C125" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G125" t="s">
-        <v>101</v>
+        <v>518</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="I125" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5393,21 +5416,21 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>519</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
+        <v>89</v>
       </c>
       <c r="G126" t="s">
-        <v>520</v>
+        <v>101</v>
       </c>
       <c r="H126" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="I126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" s="17" t="s">
+      <c r="I126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5419,10 +5442,10 @@
         <v>519</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G127" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H127" s="17" t="s">
         <v>409</v>
@@ -5442,10 +5465,10 @@
         <v>519</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G128" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H128" s="17" t="s">
         <v>409</v>
@@ -5465,10 +5488,10 @@
         <v>519</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H129" s="17" t="s">
         <v>409</v>
@@ -5488,10 +5511,10 @@
         <v>519</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G130" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H130" s="17" t="s">
         <v>409</v>
@@ -5511,10 +5534,10 @@
         <v>519</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G131" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H131" s="17" t="s">
         <v>409</v>
@@ -5531,21 +5554,21 @@
         <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C132" t="s">
-        <v>90</v>
+        <v>519</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G132" t="s">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J132" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5554,21 +5577,21 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>526</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>459</v>
+        <v>78</v>
+      </c>
+      <c r="C133" t="s">
+        <v>90</v>
       </c>
       <c r="G133" t="s">
-        <v>527</v>
+        <v>102</v>
       </c>
       <c r="H133" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="I133" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" s="17" t="s">
+      <c r="I133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5580,10 +5603,10 @@
         <v>526</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G134" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H134" s="17" t="s">
         <v>410</v>
@@ -5603,10 +5626,10 @@
         <v>526</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G135" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H135" s="17" t="s">
         <v>410</v>
@@ -5626,10 +5649,10 @@
         <v>526</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G136" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H136" s="17" t="s">
         <v>410</v>
@@ -5649,10 +5672,10 @@
         <v>526</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G137" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H137" s="17" t="s">
         <v>410</v>
@@ -5672,10 +5695,10 @@
         <v>526</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G138" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H138" s="17" t="s">
         <v>410</v>
@@ -5692,21 +5715,21 @@
         <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>104</v>
+        <v>526</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>464</v>
       </c>
       <c r="G139" t="s">
-        <v>111</v>
+        <v>532</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J139" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I139" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5718,10 +5741,10 @@
         <v>103</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H140" s="17" t="s">
         <v>397</v>
@@ -5741,10 +5764,10 @@
         <v>103</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H141" s="17" t="s">
         <v>397</v>
@@ -5764,10 +5787,10 @@
         <v>103</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H142" s="17" t="s">
         <v>397</v>
@@ -5787,10 +5810,10 @@
         <v>103</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H143" s="17" t="s">
         <v>397</v>
@@ -5810,10 +5833,10 @@
         <v>103</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H144" s="17" t="s">
         <v>397</v>
@@ -5833,10 +5856,10 @@
         <v>103</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H145" s="17" t="s">
         <v>397</v>
@@ -5853,16 +5876,16 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G146" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>13</v>
@@ -5879,13 +5902,13 @@
         <v>118</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G147" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H147" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>13</v>
@@ -5902,13 +5925,13 @@
         <v>118</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H148" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>13</v>
@@ -5925,13 +5948,13 @@
         <v>118</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H149" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>13</v>
@@ -5948,13 +5971,13 @@
         <v>118</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H150" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>13</v>
@@ -5971,13 +5994,13 @@
         <v>118</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H151" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>13</v>
@@ -5994,13 +6017,13 @@
         <v>118</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>13</v>
@@ -6016,42 +6039,42 @@
       <c r="B153" t="s">
         <v>118</v>
       </c>
-      <c r="C153" t="s">
-        <v>118</v>
+      <c r="C153" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G153" t="s">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J153" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G154" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J154" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="I154" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6060,16 +6083,16 @@
         <v>127</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="C155" t="s">
+        <v>126</v>
       </c>
       <c r="G155" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>13</v>
@@ -6086,10 +6109,10 @@
         <v>132</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H156" s="17" t="s">
         <v>419</v>
@@ -6109,10 +6132,10 @@
         <v>132</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G157" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H157" s="17" t="s">
         <v>419</v>
@@ -6129,16 +6152,16 @@
         <v>127</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
-      </c>
-      <c r="C158" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="G158" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>13</v>
@@ -6149,16 +6172,16 @@
     </row>
     <row r="159" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="C159" t="s">
+        <v>136</v>
       </c>
       <c r="G159" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H159" s="17" t="s">
         <v>397</v>
@@ -6178,10 +6201,10 @@
         <v>148</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H160" s="17" t="s">
         <v>397</v>
@@ -6201,10 +6224,10 @@
         <v>148</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H161" s="17" t="s">
         <v>397</v>
@@ -6224,10 +6247,10 @@
         <v>148</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H162" s="17" t="s">
         <v>397</v>
@@ -6247,10 +6270,10 @@
         <v>148</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H163" s="17" t="s">
         <v>397</v>
@@ -6270,10 +6293,10 @@
         <v>148</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H164" s="17" t="s">
         <v>397</v>
@@ -6293,10 +6316,10 @@
         <v>148</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H165" s="17" t="s">
         <v>397</v>
@@ -6316,10 +6339,10 @@
         <v>148</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G166" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H166" s="17" t="s">
         <v>397</v>
@@ -6339,10 +6362,10 @@
         <v>148</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G167" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H167" s="17" t="s">
         <v>397</v>
@@ -6362,10 +6385,10 @@
         <v>148</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H168" s="17" t="s">
         <v>397</v>
@@ -6382,13 +6405,13 @@
         <v>159</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
-      </c>
-      <c r="C169" t="s">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="G169" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H169" s="17" t="s">
         <v>397</v>
@@ -6405,21 +6428,21 @@
         <v>159</v>
       </c>
       <c r="B170" t="s">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="G170" t="s">
-        <v>381</v>
+        <v>161</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="I170" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J170" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6428,21 +6451,21 @@
         <v>159</v>
       </c>
       <c r="B171" t="s">
-        <v>539</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>533</v>
+        <v>380</v>
+      </c>
+      <c r="C171" t="s">
+        <v>380</v>
       </c>
       <c r="G171" t="s">
-        <v>540</v>
+        <v>381</v>
       </c>
       <c r="H171" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="I171" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J171" s="17" t="s">
+      <c r="I171" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6454,10 +6477,10 @@
         <v>539</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G172" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H172" s="17" t="s">
         <v>420</v>
@@ -6477,10 +6500,10 @@
         <v>539</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G173" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H173" s="17" t="s">
         <v>420</v>
@@ -6500,10 +6523,10 @@
         <v>539</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G174" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H174" s="17" t="s">
         <v>420</v>
@@ -6523,10 +6546,10 @@
         <v>539</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G175" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H175" s="17" t="s">
         <v>420</v>
@@ -6546,10 +6569,10 @@
         <v>539</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G176" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H176" s="17" t="s">
         <v>420</v>
@@ -6566,21 +6589,21 @@
         <v>159</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
-      </c>
-      <c r="C177" t="s">
-        <v>162</v>
+        <v>539</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="G177" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J177" s="6" t="s">
+      <c r="J177" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6589,18 +6612,18 @@
         <v>159</v>
       </c>
       <c r="B178" t="s">
-        <v>163</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="C178" t="s">
+        <v>162</v>
       </c>
       <c r="G178" t="s">
-        <v>173</v>
+        <v>582</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="I178" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="I178" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J178" s="6" t="s">
@@ -6615,10 +6638,10 @@
         <v>163</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G179" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H179" s="17" t="s">
         <v>421</v>
@@ -6638,10 +6661,10 @@
         <v>163</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G180" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H180" s="17" t="s">
         <v>421</v>
@@ -6661,10 +6684,10 @@
         <v>163</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G181" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H181" s="17" t="s">
         <v>421</v>
@@ -6684,10 +6707,10 @@
         <v>163</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H182" s="17" t="s">
         <v>421</v>
@@ -6707,10 +6730,10 @@
         <v>163</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G183" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H183" s="17" t="s">
         <v>421</v>
@@ -6730,10 +6753,10 @@
         <v>163</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G184" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H184" s="17" t="s">
         <v>421</v>
@@ -6753,10 +6776,10 @@
         <v>163</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G185" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H185" s="17" t="s">
         <v>421</v>
@@ -6776,10 +6799,10 @@
         <v>163</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G186" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H186" s="17" t="s">
         <v>421</v>
@@ -6796,21 +6819,21 @@
         <v>159</v>
       </c>
       <c r="B187" t="s">
-        <v>182</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>566</v>
+        <v>163</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="G187" t="s">
-        <v>574</v>
+        <v>181</v>
       </c>
       <c r="H187" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="I187" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J187" s="17" t="s">
+      <c r="I187" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6821,11 +6844,11 @@
       <c r="B188" t="s">
         <v>182</v>
       </c>
-      <c r="C188" s="9" t="s">
-        <v>567</v>
+      <c r="C188" s="21" t="s">
+        <v>566</v>
       </c>
       <c r="G188" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H188" s="17" t="s">
         <v>421</v>
@@ -6845,10 +6868,10 @@
         <v>182</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G189" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H189" s="17" t="s">
         <v>421</v>
@@ -6868,10 +6891,10 @@
         <v>182</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G190" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H190" s="17" t="s">
         <v>421</v>
@@ -6891,10 +6914,10 @@
         <v>182</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G191" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H191" s="17" t="s">
         <v>421</v>
@@ -6914,10 +6937,10 @@
         <v>182</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G192" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H192" s="17" t="s">
         <v>421</v>
@@ -6937,10 +6960,10 @@
         <v>182</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G193" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H193" s="17" t="s">
         <v>421</v>
@@ -6960,10 +6983,10 @@
         <v>182</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G194" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H194" s="17" t="s">
         <v>421</v>
@@ -6982,11 +7005,11 @@
       <c r="B195" t="s">
         <v>182</v>
       </c>
-      <c r="C195" t="s">
-        <v>182</v>
+      <c r="C195" s="9" t="s">
+        <v>573</v>
       </c>
       <c r="G195" t="s">
-        <v>382</v>
+        <v>581</v>
       </c>
       <c r="H195" s="17" t="s">
         <v>421</v>
@@ -6994,27 +7017,27 @@
       <c r="I195" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J195" s="6" t="s">
+      <c r="J195" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="B196" t="s">
-        <v>183</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="C196" t="s">
+        <v>182</v>
       </c>
       <c r="G196" t="s">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I196" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I196" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J196" s="6" t="s">
@@ -7029,10 +7052,10 @@
         <v>183</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H197" s="17" t="s">
         <v>397</v>
@@ -7052,10 +7075,10 @@
         <v>183</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H198" s="17" t="s">
         <v>397</v>
@@ -7075,10 +7098,10 @@
         <v>183</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H199" s="17" t="s">
         <v>397</v>
@@ -7098,10 +7121,10 @@
         <v>183</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H200" s="17" t="s">
         <v>397</v>
@@ -7121,10 +7144,10 @@
         <v>183</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H201" s="17" t="s">
         <v>397</v>
@@ -7144,10 +7167,10 @@
         <v>183</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H202" s="17" t="s">
         <v>397</v>
@@ -7167,10 +7190,10 @@
         <v>183</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H203" s="17" t="s">
         <v>397</v>
@@ -7190,10 +7213,10 @@
         <v>183</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H204" s="17" t="s">
         <v>397</v>
@@ -7213,10 +7236,10 @@
         <v>183</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H205" s="17" t="s">
         <v>397</v>
@@ -7236,10 +7259,10 @@
         <v>183</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H206" s="17" t="s">
         <v>397</v>
@@ -7259,10 +7282,10 @@
         <v>183</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H207" s="17" t="s">
         <v>397</v>
@@ -7282,10 +7305,10 @@
         <v>183</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H208" s="17" t="s">
         <v>397</v>
@@ -7305,10 +7328,10 @@
         <v>183</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H209" s="17" t="s">
         <v>397</v>
@@ -7328,10 +7351,10 @@
         <v>183</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H210" s="17" t="s">
         <v>397</v>
@@ -7348,13 +7371,13 @@
         <v>184</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
-      </c>
-      <c r="C211" t="s">
-        <v>149</v>
+        <v>183</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="G211" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H211" s="17" t="s">
         <v>397</v>
@@ -7374,10 +7397,10 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="G212" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H212" s="17" t="s">
         <v>397</v>
@@ -7397,10 +7420,10 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G213" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H213" s="17" t="s">
         <v>397</v>
@@ -7420,10 +7443,10 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G214" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H214" s="17" t="s">
         <v>397</v>
@@ -7443,10 +7466,10 @@
         <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G215" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H215" s="17" t="s">
         <v>397</v>
@@ -7466,10 +7489,10 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H216" s="17" t="s">
         <v>397</v>
@@ -7489,10 +7512,10 @@
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H217" s="17" t="s">
         <v>397</v>
@@ -7512,10 +7535,10 @@
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G218" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H218" s="17" t="s">
         <v>397</v>
@@ -7535,10 +7558,10 @@
         <v>215</v>
       </c>
       <c r="C219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G219" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H219" s="17" t="s">
         <v>397</v>
@@ -7558,10 +7581,10 @@
         <v>215</v>
       </c>
       <c r="C220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G220" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H220" s="17" t="s">
         <v>397</v>
@@ -7581,10 +7604,10 @@
         <v>215</v>
       </c>
       <c r="C221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H221" s="17" t="s">
         <v>397</v>
@@ -7604,10 +7627,10 @@
         <v>215</v>
       </c>
       <c r="C222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G222" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H222" s="17" t="s">
         <v>397</v>
@@ -7627,10 +7650,10 @@
         <v>215</v>
       </c>
       <c r="C223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H223" s="17" t="s">
         <v>397</v>
@@ -7647,21 +7670,21 @@
         <v>184</v>
       </c>
       <c r="B224" t="s">
-        <v>583</v>
+        <v>215</v>
       </c>
       <c r="C224" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="G224" t="s">
-        <v>584</v>
-      </c>
-      <c r="H224" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="I224" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J224" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H224" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7673,10 +7696,10 @@
         <v>583</v>
       </c>
       <c r="C225" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="G225" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H225" s="18" t="s">
         <v>397</v>
@@ -7696,10 +7719,10 @@
         <v>583</v>
       </c>
       <c r="C226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G226" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H226" s="18" t="s">
         <v>397</v>
@@ -7719,10 +7742,10 @@
         <v>583</v>
       </c>
       <c r="C227" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G227" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H227" s="18" t="s">
         <v>397</v>
@@ -7742,10 +7765,10 @@
         <v>583</v>
       </c>
       <c r="C228" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G228" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H228" s="18" t="s">
         <v>397</v>
@@ -7765,10 +7788,10 @@
         <v>583</v>
       </c>
       <c r="C229" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G229" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H229" s="18" t="s">
         <v>397</v>
@@ -7788,10 +7811,10 @@
         <v>583</v>
       </c>
       <c r="C230" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G230" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H230" s="18" t="s">
         <v>397</v>
@@ -7811,10 +7834,10 @@
         <v>583</v>
       </c>
       <c r="C231" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G231" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H231" s="18" t="s">
         <v>397</v>
@@ -7834,10 +7857,10 @@
         <v>583</v>
       </c>
       <c r="C232" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G232" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H232" s="18" t="s">
         <v>397</v>
@@ -7857,10 +7880,10 @@
         <v>583</v>
       </c>
       <c r="C233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G233" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H233" s="18" t="s">
         <v>397</v>
@@ -7880,10 +7903,10 @@
         <v>583</v>
       </c>
       <c r="C234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G234" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H234" s="18" t="s">
         <v>397</v>
@@ -7903,10 +7926,10 @@
         <v>583</v>
       </c>
       <c r="C235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G235" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H235" s="18" t="s">
         <v>397</v>
@@ -7926,10 +7949,10 @@
         <v>583</v>
       </c>
       <c r="C236" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G236" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H236" s="18" t="s">
         <v>397</v>
@@ -7949,10 +7972,10 @@
         <v>583</v>
       </c>
       <c r="C237" t="s">
-        <v>597</v>
+        <v>227</v>
       </c>
       <c r="G237" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="H237" s="18" t="s">
         <v>397</v>
@@ -7969,21 +7992,21 @@
         <v>184</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="C238" t="s">
-        <v>242</v>
+        <v>597</v>
       </c>
       <c r="G238" t="s">
-        <v>242</v>
-      </c>
-      <c r="H238" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I238" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J238" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H238" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="I238" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7995,10 +8018,10 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G239" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H239" s="17" t="s">
         <v>397</v>
@@ -8018,12 +8041,12 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G240" t="s">
-        <v>244</v>
-      </c>
-      <c r="H240" t="s">
+        <v>243</v>
+      </c>
+      <c r="H240" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I240" s="7" t="s">
@@ -8041,18 +8064,18 @@
         <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>598</v>
+        <v>244</v>
       </c>
       <c r="G241" t="s">
-        <v>610</v>
+        <v>244</v>
       </c>
       <c r="H241" t="s">
         <v>397</v>
       </c>
-      <c r="I241" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J241" s="18" t="s">
+      <c r="I241" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8064,10 +8087,10 @@
         <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G242" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H242" t="s">
         <v>397</v>
@@ -8087,10 +8110,10 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G243" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H243" t="s">
         <v>397</v>
@@ -8110,10 +8133,10 @@
         <v>241</v>
       </c>
       <c r="C244" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G244" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H244" t="s">
         <v>397</v>
@@ -8133,10 +8156,10 @@
         <v>241</v>
       </c>
       <c r="C245" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G245" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H245" t="s">
         <v>397</v>
@@ -8156,10 +8179,10 @@
         <v>241</v>
       </c>
       <c r="C246" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G246" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H246" t="s">
         <v>397</v>
@@ -8179,10 +8202,10 @@
         <v>241</v>
       </c>
       <c r="C247" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G247" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H247" t="s">
         <v>397</v>
@@ -8202,10 +8225,10 @@
         <v>241</v>
       </c>
       <c r="C248" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G248" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H248" t="s">
         <v>397</v>
@@ -8225,10 +8248,10 @@
         <v>241</v>
       </c>
       <c r="C249" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G249" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H249" t="s">
         <v>397</v>
@@ -8248,10 +8271,10 @@
         <v>241</v>
       </c>
       <c r="C250" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G250" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H250" t="s">
         <v>397</v>
@@ -8271,10 +8294,10 @@
         <v>241</v>
       </c>
       <c r="C251" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G251" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H251" t="s">
         <v>397</v>
@@ -8291,21 +8314,21 @@
         <v>184</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C252" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="G252" t="s">
-        <v>624</v>
-      </c>
-      <c r="H252" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I252" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J252" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H252" t="s">
+        <v>397</v>
+      </c>
+      <c r="I252" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8317,18 +8340,18 @@
         <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G253" t="s">
-        <v>625</v>
-      </c>
-      <c r="H253" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="H253" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I253" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J253" s="22" t="s">
+      <c r="J253" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8340,10 +8363,10 @@
         <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G254" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H254" s="22" t="s">
         <v>397</v>
@@ -8360,18 +8383,18 @@
         <v>184</v>
       </c>
       <c r="B255" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C255" t="s">
-        <v>246</v>
+        <v>623</v>
       </c>
       <c r="G255" t="s">
-        <v>248</v>
-      </c>
-      <c r="H255" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I255" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H255" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I255" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J255" s="22" t="s">
@@ -8383,21 +8406,21 @@
         <v>184</v>
       </c>
       <c r="B256" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C256" t="s">
-        <v>621</v>
+        <v>246</v>
       </c>
       <c r="G256" t="s">
-        <v>627</v>
+        <v>248</v>
       </c>
       <c r="H256" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I256" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J256" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I256" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8409,18 +8432,18 @@
         <v>247</v>
       </c>
       <c r="C257" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G257" t="s">
-        <v>628</v>
-      </c>
-      <c r="H257" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="H257" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I257" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J257" s="22" t="s">
+      <c r="J257" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8432,10 +8455,10 @@
         <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G258" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H258" s="22" t="s">
         <v>397</v>
@@ -8452,21 +8475,21 @@
         <v>184</v>
       </c>
       <c r="B259" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C259" t="s">
-        <v>249</v>
+        <v>623</v>
       </c>
       <c r="G259" t="s">
-        <v>383</v>
-      </c>
-      <c r="H259" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="I259" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J259" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H259" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I259" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J259" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8474,19 +8497,19 @@
       <c r="A260" t="s">
         <v>184</v>
       </c>
-      <c r="B260" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>657</v>
+      <c r="B260" t="s">
+        <v>249</v>
+      </c>
+      <c r="C260" t="s">
+        <v>249</v>
       </c>
       <c r="G260" t="s">
-        <v>655</v>
+        <v>383</v>
       </c>
       <c r="H260" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I260" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="I260" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J260" s="7" t="s">
@@ -8501,18 +8524,18 @@
         <v>250</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="G261" t="s">
-        <v>656</v>
-      </c>
-      <c r="H261" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="H261" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I261" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J261" s="22" t="s">
+      <c r="J261" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8524,10 +8547,10 @@
         <v>250</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="G262" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="H262" s="22" t="s">
         <v>397</v>
@@ -8544,13 +8567,13 @@
         <v>184</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G263" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H263" s="22" t="s">
         <v>397</v>
@@ -8570,10 +8593,10 @@
         <v>251</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="G264" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H264" s="22" t="s">
         <v>397</v>
@@ -8593,10 +8616,10 @@
         <v>251</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="G265" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H265" s="22" t="s">
         <v>397</v>
@@ -8613,13 +8636,13 @@
         <v>184</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G266" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H266" s="22" t="s">
         <v>397</v>
@@ -8639,10 +8662,10 @@
         <v>252</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="G267" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H267" s="22" t="s">
         <v>397</v>
@@ -8662,10 +8685,10 @@
         <v>252</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="G268" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H268" s="22" t="s">
         <v>397</v>
@@ -8682,13 +8705,13 @@
         <v>184</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G269" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H269" s="22" t="s">
         <v>397</v>
@@ -8708,10 +8731,10 @@
         <v>253</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="G270" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H270" s="22" t="s">
         <v>397</v>
@@ -8731,10 +8754,10 @@
         <v>253</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="G271" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H271" s="22" t="s">
         <v>397</v>
@@ -8751,13 +8774,13 @@
         <v>184</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G272" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H272" s="22" t="s">
         <v>397</v>
@@ -8777,10 +8800,10 @@
         <v>254</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="G273" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H273" s="22" t="s">
         <v>397</v>
@@ -8800,10 +8823,10 @@
         <v>254</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="G274" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H274" s="22" t="s">
         <v>397</v>
@@ -8819,14 +8842,14 @@
       <c r="A275" t="s">
         <v>184</v>
       </c>
-      <c r="B275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C275" t="s">
-        <v>255</v>
+      <c r="B275" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>658</v>
       </c>
       <c r="G275" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="H275" s="22" t="s">
         <v>397</v>
@@ -8834,7 +8857,7 @@
       <c r="I275" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J275" s="7" t="s">
+      <c r="J275" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8843,18 +8866,18 @@
         <v>184</v>
       </c>
       <c r="B276" t="s">
-        <v>256</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="C276" t="s">
+        <v>255</v>
       </c>
       <c r="G276" t="s">
-        <v>264</v>
-      </c>
-      <c r="H276" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I276" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="H276" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I276" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J276" s="7" t="s">
@@ -8869,10 +8892,10 @@
         <v>256</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G277" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H277" s="17" t="s">
         <v>424</v>
@@ -8892,10 +8915,10 @@
         <v>256</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G278" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H278" s="17" t="s">
         <v>424</v>
@@ -8915,10 +8938,10 @@
         <v>256</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G279" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H279" s="17" t="s">
         <v>424</v>
@@ -8938,10 +8961,10 @@
         <v>256</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G280" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H280" s="17" t="s">
         <v>424</v>
@@ -8961,10 +8984,10 @@
         <v>256</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G281" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H281" s="17" t="s">
         <v>424</v>
@@ -8984,10 +9007,10 @@
         <v>256</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G282" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H282" s="17" t="s">
         <v>424</v>
@@ -9001,21 +9024,21 @@
     </row>
     <row r="283" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="B283" t="s">
-        <v>272</v>
-      </c>
-      <c r="C283" t="s">
-        <v>621</v>
+        <v>256</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="G283" t="s">
-        <v>631</v>
+        <v>270</v>
       </c>
       <c r="H283" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I283" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="I283" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J283" s="7" t="s">
@@ -9030,18 +9053,18 @@
         <v>272</v>
       </c>
       <c r="C284" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G284" t="s">
-        <v>632</v>
-      </c>
-      <c r="H284" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="H284" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I284" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J284" s="22" t="s">
+      <c r="J284" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9053,10 +9076,10 @@
         <v>272</v>
       </c>
       <c r="C285" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G285" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H285" s="22" t="s">
         <v>397</v>
@@ -9073,21 +9096,21 @@
         <v>271</v>
       </c>
       <c r="B286" t="s">
-        <v>273</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="C286" t="s">
+        <v>623</v>
       </c>
       <c r="G286" t="s">
-        <v>278</v>
-      </c>
-      <c r="H286" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="I286" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J286" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H286" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I286" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J286" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9099,10 +9122,10 @@
         <v>273</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G287" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H287" s="17" t="s">
         <v>425</v>
@@ -9122,10 +9145,10 @@
         <v>273</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G288" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H288" s="17" t="s">
         <v>425</v>
@@ -9145,10 +9168,10 @@
         <v>273</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G289" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H289" s="17" t="s">
         <v>425</v>
@@ -9165,18 +9188,18 @@
         <v>271</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
-      </c>
-      <c r="C290" t="s">
-        <v>621</v>
+        <v>273</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="G290" t="s">
-        <v>634</v>
+        <v>281</v>
       </c>
       <c r="H290" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I290" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="I290" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J290" s="7" t="s">
@@ -9191,18 +9214,18 @@
         <v>282</v>
       </c>
       <c r="C291" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G291" t="s">
-        <v>635</v>
-      </c>
-      <c r="H291" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="H291" s="17" t="s">
         <v>397</v>
       </c>
       <c r="I291" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J291" s="22" t="s">
+      <c r="J291" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9214,10 +9237,10 @@
         <v>282</v>
       </c>
       <c r="C292" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G292" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H292" s="22" t="s">
         <v>397</v>
@@ -9234,21 +9257,21 @@
         <v>271</v>
       </c>
       <c r="B293" t="s">
-        <v>283</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>274</v>
+        <v>282</v>
+      </c>
+      <c r="C293" t="s">
+        <v>623</v>
       </c>
       <c r="G293" t="s">
-        <v>284</v>
-      </c>
-      <c r="H293" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="I293" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J293" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H293" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="I293" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J293" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9260,10 +9283,10 @@
         <v>283</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G294" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H294" s="17" t="s">
         <v>425</v>
@@ -9283,10 +9306,10 @@
         <v>283</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G295" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H295" s="17" t="s">
         <v>425</v>
@@ -9306,10 +9329,10 @@
         <v>283</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G296" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H296" s="17" t="s">
         <v>425</v>
@@ -9326,18 +9349,18 @@
         <v>271</v>
       </c>
       <c r="B297" t="s">
-        <v>288</v>
-      </c>
-      <c r="C297" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="G297" t="s">
-        <v>637</v>
+        <v>287</v>
       </c>
       <c r="H297" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I297" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="I297" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J297" s="7" t="s">
@@ -9349,18 +9372,18 @@
         <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>289</v>
-      </c>
-      <c r="C298" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="C298" t="s">
+        <v>288</v>
       </c>
       <c r="G298" t="s">
-        <v>309</v>
+        <v>637</v>
       </c>
       <c r="H298" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="I298" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="I298" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J298" s="7" t="s">
@@ -9375,10 +9398,10 @@
         <v>289</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G299" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H299" s="17" t="s">
         <v>426</v>
@@ -9398,10 +9421,10 @@
         <v>289</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G300" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H300" s="17" t="s">
         <v>426</v>
@@ -9421,10 +9444,10 @@
         <v>289</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G301" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H301" s="17" t="s">
         <v>426</v>
@@ -9444,10 +9467,10 @@
         <v>289</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G302" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H302" s="17" t="s">
         <v>426</v>
@@ -9467,10 +9490,10 @@
         <v>289</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G303" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H303" s="17" t="s">
         <v>426</v>
@@ -9490,10 +9513,10 @@
         <v>289</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G304" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H304" s="17" t="s">
         <v>426</v>
@@ -9510,13 +9533,13 @@
         <v>271</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="G305" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H305" s="17" t="s">
         <v>426</v>
@@ -9536,10 +9559,10 @@
         <v>297</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G306" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H306" s="17" t="s">
         <v>426</v>
@@ -9559,10 +9582,10 @@
         <v>297</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G307" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H307" s="17" t="s">
         <v>426</v>
@@ -9582,10 +9605,10 @@
         <v>297</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G308" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H308" s="17" t="s">
         <v>426</v>
@@ -9605,10 +9628,10 @@
         <v>297</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G309" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H309" s="17" t="s">
         <v>426</v>
@@ -9628,10 +9651,10 @@
         <v>297</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G310" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H310" s="17" t="s">
         <v>426</v>
@@ -9651,10 +9674,10 @@
         <v>297</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G311" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H311" s="17" t="s">
         <v>426</v>
@@ -9674,10 +9697,10 @@
         <v>297</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G312" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H312" s="17" t="s">
         <v>426</v>
@@ -9697,10 +9720,10 @@
         <v>297</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G313" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H313" s="17" t="s">
         <v>426</v>
@@ -9720,10 +9743,10 @@
         <v>297</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G314" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H314" s="17" t="s">
         <v>426</v>
@@ -9743,10 +9766,10 @@
         <v>297</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G315" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H315" s="17" t="s">
         <v>426</v>
@@ -9760,21 +9783,21 @@
     </row>
     <row r="316" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="B316" t="s">
-        <v>327</v>
-      </c>
-      <c r="C316" t="s">
-        <v>327</v>
+        <v>297</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="G316" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="H316" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I316" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I316" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J316" s="7" t="s">
@@ -9786,18 +9809,18 @@
         <v>378</v>
       </c>
       <c r="B317" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C317" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G317" t="s">
-        <v>638</v>
+        <v>384</v>
       </c>
       <c r="H317" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="I317" s="22" t="s">
+      <c r="I317" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J317" s="7" t="s">
@@ -9809,16 +9832,16 @@
         <v>378</v>
       </c>
       <c r="B318" t="s">
-        <v>329</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>639</v>
+        <v>328</v>
+      </c>
+      <c r="C318" t="s">
+        <v>328</v>
       </c>
       <c r="G318" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H318" s="17" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="I318" s="22" t="s">
         <v>13</v>
@@ -9835,18 +9858,18 @@
         <v>329</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G319" t="s">
-        <v>645</v>
-      </c>
-      <c r="H319" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="H319" s="17" t="s">
         <v>427</v>
       </c>
       <c r="I319" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J319" s="22" t="s">
+      <c r="J319" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9858,10 +9881,10 @@
         <v>329</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G320" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H320" s="22" t="s">
         <v>427</v>
@@ -9881,10 +9904,10 @@
         <v>329</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G321" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H321" s="22" t="s">
         <v>427</v>
@@ -9904,10 +9927,10 @@
         <v>329</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G322" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H322" s="22" t="s">
         <v>427</v>
@@ -9924,21 +9947,21 @@
         <v>378</v>
       </c>
       <c r="B323" t="s">
-        <v>330</v>
-      </c>
-      <c r="C323" t="s">
-        <v>652</v>
+        <v>329</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>643</v>
       </c>
       <c r="G323" t="s">
-        <v>649</v>
-      </c>
-      <c r="H323" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="H323" s="22" t="s">
         <v>427</v>
       </c>
       <c r="I323" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J323" s="7" t="s">
+      <c r="J323" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9949,19 +9972,19 @@
       <c r="B324" t="s">
         <v>330</v>
       </c>
-      <c r="C324" s="8" t="s">
-        <v>653</v>
+      <c r="C324" t="s">
+        <v>652</v>
       </c>
       <c r="G324" t="s">
-        <v>650</v>
-      </c>
-      <c r="H324" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="H324" s="17" t="s">
         <v>427</v>
       </c>
       <c r="I324" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J324" s="22" t="s">
+      <c r="J324" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9972,11 +9995,11 @@
       <c r="B325" t="s">
         <v>330</v>
       </c>
-      <c r="C325" t="s">
-        <v>654</v>
+      <c r="C325" s="8" t="s">
+        <v>653</v>
       </c>
       <c r="G325" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H325" s="22" t="s">
         <v>427</v>
@@ -9993,21 +10016,21 @@
         <v>378</v>
       </c>
       <c r="B326" t="s">
-        <v>332</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C326" t="s">
+        <v>654</v>
       </c>
       <c r="G326" t="s">
-        <v>341</v>
-      </c>
-      <c r="H326" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="H326" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="I326" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J326" s="7" t="s">
+      <c r="I326" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J326" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10019,10 +10042,10 @@
         <v>332</v>
       </c>
       <c r="C327" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G327" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H327" s="17" t="s">
         <v>427</v>
@@ -10042,10 +10065,10 @@
         <v>332</v>
       </c>
       <c r="C328" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G328" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H328" s="17" t="s">
         <v>427</v>
@@ -10065,10 +10088,10 @@
         <v>332</v>
       </c>
       <c r="C329" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G329" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H329" s="17" t="s">
         <v>427</v>
@@ -10088,10 +10111,10 @@
         <v>332</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G330" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H330" s="17" t="s">
         <v>427</v>
@@ -10111,10 +10134,10 @@
         <v>332</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G331" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H331" s="17" t="s">
         <v>427</v>
@@ -10134,10 +10157,10 @@
         <v>332</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G332" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H332" s="17" t="s">
         <v>427</v>
@@ -10157,10 +10180,10 @@
         <v>332</v>
       </c>
       <c r="C333" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G333" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H333" s="17" t="s">
         <v>427</v>
@@ -10177,16 +10200,16 @@
         <v>378</v>
       </c>
       <c r="B334" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C334" s="9" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G334" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H334" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I334" s="7" t="s">
         <v>13</v>
@@ -10203,10 +10226,10 @@
         <v>331</v>
       </c>
       <c r="C335" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G335" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H335" s="17" t="s">
         <v>428</v>
@@ -10226,10 +10249,10 @@
         <v>331</v>
       </c>
       <c r="C336" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G336" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H336" s="17" t="s">
         <v>428</v>
@@ -10249,10 +10272,10 @@
         <v>331</v>
       </c>
       <c r="C337" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G337" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H337" s="17" t="s">
         <v>428</v>
@@ -10272,10 +10295,10 @@
         <v>331</v>
       </c>
       <c r="C338" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G338" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H338" s="17" t="s">
         <v>428</v>
@@ -10295,10 +10318,10 @@
         <v>331</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G339" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H339" s="17" t="s">
         <v>428</v>
@@ -10318,10 +10341,10 @@
         <v>331</v>
       </c>
       <c r="C340" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G340" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H340" s="17" t="s">
         <v>428</v>
@@ -10341,10 +10364,10 @@
         <v>331</v>
       </c>
       <c r="C341" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G341" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H341" s="17" t="s">
         <v>428</v>
@@ -10364,10 +10387,10 @@
         <v>331</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G342" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H342" s="17" t="s">
         <v>428</v>
@@ -10384,16 +10407,16 @@
         <v>378</v>
       </c>
       <c r="B343" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="C343" s="9" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G343" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H343" s="17" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="I343" s="7" t="s">
         <v>13</v>
@@ -10410,10 +10433,10 @@
         <v>367</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G344" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H344" s="17" t="s">
         <v>397</v>
@@ -10433,10 +10456,10 @@
         <v>367</v>
       </c>
       <c r="C345" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G345" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H345" s="17" t="s">
         <v>397</v>
@@ -10456,10 +10479,10 @@
         <v>367</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G346" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H346" s="17" t="s">
         <v>397</v>
@@ -10479,18 +10502,110 @@
         <v>367</v>
       </c>
       <c r="C347" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G347" t="s">
+        <v>376</v>
+      </c>
+      <c r="H347" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I347" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J347" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>378</v>
+      </c>
+      <c r="B348" t="s">
+        <v>367</v>
+      </c>
+      <c r="C348" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G348" t="s">
         <v>377</v>
       </c>
-      <c r="H347" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="I347" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J347" s="7" t="s">
+      <c r="H348" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="I348" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J348" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>65</v>
+      </c>
+      <c r="B349" t="s">
+        <v>52</v>
+      </c>
+      <c r="C349" t="s">
+        <v>52</v>
+      </c>
+      <c r="G349" t="s">
+        <v>674</v>
+      </c>
+      <c r="H349" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I349" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J349" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>159</v>
+      </c>
+      <c r="B350" t="s">
+        <v>148</v>
+      </c>
+      <c r="C350" t="s">
+        <v>148</v>
+      </c>
+      <c r="G350" t="s">
+        <v>676</v>
+      </c>
+      <c r="H350" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I350" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J350" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>184</v>
+      </c>
+      <c r="B351" t="s">
+        <v>241</v>
+      </c>
+      <c r="C351" t="s">
+        <v>241</v>
+      </c>
+      <c r="G351" t="s">
+        <v>675</v>
+      </c>
+      <c r="H351" t="s">
+        <v>397</v>
+      </c>
+      <c r="I351" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J351" s="23" t="s">
         <v>14</v>
       </c>
     </row>
